--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1000389.120629198</v>
+        <v>997932.3974451479</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7229119.812732989</v>
+        <v>7229119.81273299</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673418</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11434845.71361303</v>
+        <v>11434845.71361304</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.20662970553737</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>39.58387696184059</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.7374062165301714</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,67 +744,67 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="U3" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,58 +826,58 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F5" t="n">
-        <v>12.92549025883184</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>39.58387696184059</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0.7374062165301433</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,67 +981,67 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="G6" t="n">
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,23 +1093,23 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>17.99873387173292</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,58 +1142,58 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G8" t="n">
-        <v>22.91618947337665</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I8" t="n">
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,14 +1212,14 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G10" t="n">
+      <c r="V10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>313.3394778192376</v>
       </c>
       <c r="F11" t="n">
-        <v>338.2851534886809</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.1458461993295</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>102.5742730227066</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.5210371798524</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.9784983469845</v>
       </c>
       <c r="U13" t="n">
         <v>286.2173218107722</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>132.0661591522398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>2.627096661416232</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1263410202829</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.6488425552939</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>99.37571472102323</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.45247118973343</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>40.52101995113989</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.9784983469845</v>
       </c>
       <c r="U16" t="n">
         <v>286.2173218107722</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>93.64830626927228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1263410202829</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>93.45247118973343</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>191.5210371798524</v>
       </c>
       <c r="T19" t="n">
         <v>219.9784983469845</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2173218107722</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>16.24680386991533</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2173218107722</v>
       </c>
       <c r="V22" t="n">
-        <v>136.1272629944393</v>
+        <v>148.7124220777488</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>93.45247118973343</v>
       </c>
       <c r="S25" t="n">
         <v>191.5210371798524</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.9106355425708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>9.121801832973075</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1263410202829</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.6488425552939</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>93.45247118973343</v>
       </c>
       <c r="S28" t="n">
         <v>191.5210371798524</v>
@@ -2767,19 +2767,19 @@
         <v>219.9784983469845</v>
       </c>
       <c r="U28" t="n">
-        <v>135.4792455483111</v>
+        <v>286.2173218107722</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>89.64530590077814</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1263410202829</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.6488425552939</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>88.7856318944923</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>191.5210371798524</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.9784983469845</v>
       </c>
       <c r="U31" t="n">
         <v>286.2173218107722</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>239.0451514134938</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.74930231569193</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.1263410202829</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>191.5210371798524</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.9784983469845</v>
       </c>
       <c r="U34" t="n">
         <v>286.2173218107722</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>109.699275059649</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.77268402840409</v>
+        <v>62.77268402840411</v>
       </c>
       <c r="T35" t="n">
         <v>153.3768331302704</v>
@@ -3427,22 +3427,22 @@
         <v>115.7245963997057</v>
       </c>
       <c r="D37" t="n">
-        <v>97.09324831929023</v>
+        <v>97.09324831929024</v>
       </c>
       <c r="E37" t="n">
-        <v>94.91173794764704</v>
+        <v>94.91173794764705</v>
       </c>
       <c r="F37" t="n">
-        <v>93.89882332400911</v>
+        <v>93.89882332400913</v>
       </c>
       <c r="G37" t="n">
         <v>114.6041163213607</v>
       </c>
       <c r="H37" t="n">
-        <v>94.12661785637177</v>
+        <v>94.12661785637178</v>
       </c>
       <c r="I37" t="n">
-        <v>47.85349002210109</v>
+        <v>47.85349002210036</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9302464908113</v>
+        <v>41.93024649081131</v>
       </c>
       <c r="S37" t="n">
         <v>139.9988124809303</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.77268402840409</v>
+        <v>62.77268402840411</v>
       </c>
       <c r="T38" t="n">
         <v>153.3768331302704</v>
@@ -3664,22 +3664,22 @@
         <v>115.7245963997057</v>
       </c>
       <c r="D40" t="n">
-        <v>97.09324831929023</v>
+        <v>97.09324831929024</v>
       </c>
       <c r="E40" t="n">
-        <v>94.91173794764704</v>
+        <v>94.91173794764705</v>
       </c>
       <c r="F40" t="n">
-        <v>93.89882332400911</v>
+        <v>93.89882332400913</v>
       </c>
       <c r="G40" t="n">
         <v>114.6041163213607</v>
       </c>
       <c r="H40" t="n">
-        <v>94.12661785637177</v>
+        <v>94.12661785637168</v>
       </c>
       <c r="I40" t="n">
-        <v>47.85349002210109</v>
+        <v>47.85349002210111</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9302464908113</v>
+        <v>41.93024649081131</v>
       </c>
       <c r="S40" t="n">
         <v>139.9988124809303</v>
@@ -3743,16 +3743,16 @@
         <v>313.7506670720854</v>
       </c>
       <c r="D41" t="n">
-        <v>303.1608169217609</v>
+        <v>303.1608169217608</v>
       </c>
       <c r="E41" t="n">
         <v>330.4081453733397</v>
       </c>
       <c r="F41" t="n">
-        <v>355.3538210427894</v>
+        <v>355.3538210427893</v>
       </c>
       <c r="G41" t="n">
-        <v>359.6236215004075</v>
+        <v>359.6236215004074</v>
       </c>
       <c r="H41" t="n">
         <v>245.3808142288514</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.77268402840414</v>
+        <v>62.77268402840409</v>
       </c>
       <c r="T41" t="n">
-        <v>153.3768331302705</v>
+        <v>153.3768331302704</v>
       </c>
       <c r="U41" t="n">
-        <v>199.49087690365</v>
+        <v>199.4908769036499</v>
       </c>
       <c r="V41" t="n">
         <v>276.2300337712128</v>
       </c>
       <c r="W41" t="n">
-        <v>297.718744018491</v>
+        <v>297.7187440184909</v>
       </c>
       <c r="X41" t="n">
-        <v>318.208875979547</v>
+        <v>318.2088759795469</v>
       </c>
       <c r="Y41" t="n">
         <v>334.7157139571315</v>
@@ -3837,7 +3837,7 @@
         <v>90.75500248173982</v>
       </c>
       <c r="I42" t="n">
-        <v>12.82012614167866</v>
+        <v>12.82012614167863</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>115.7245963997057</v>
       </c>
       <c r="D43" t="n">
-        <v>97.09324831929027</v>
+        <v>97.09324831929024</v>
       </c>
       <c r="E43" t="n">
-        <v>94.91173794764708</v>
+        <v>94.91173794764705</v>
       </c>
       <c r="F43" t="n">
-        <v>93.89882332400916</v>
+        <v>93.89882332400913</v>
       </c>
       <c r="G43" t="n">
-        <v>114.6041163213608</v>
+        <v>114.6041163213607</v>
       </c>
       <c r="H43" t="n">
-        <v>94.12661785637181</v>
+        <v>94.12661785637178</v>
       </c>
       <c r="I43" t="n">
-        <v>47.8534900220999</v>
+        <v>47.85349002210109</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93024649081134</v>
+        <v>41.9302464908113</v>
       </c>
       <c r="S43" t="n">
         <v>139.9988124809303</v>
@@ -3961,7 +3961,7 @@
         <v>235.0007736376689</v>
       </c>
       <c r="X43" t="n">
-        <v>174.1874306901151</v>
+        <v>174.187430690115</v>
       </c>
       <c r="Y43" t="n">
         <v>167.0624286531727</v>
@@ -3980,19 +3980,19 @@
         <v>313.7506670720854</v>
       </c>
       <c r="D44" t="n">
-        <v>303.1608169217609</v>
+        <v>303.1608169217608</v>
       </c>
       <c r="E44" t="n">
         <v>330.4081453733397</v>
       </c>
       <c r="F44" t="n">
-        <v>355.3538210427894</v>
+        <v>355.3538210427893</v>
       </c>
       <c r="G44" t="n">
-        <v>359.6236215004075</v>
+        <v>359.6236215004074</v>
       </c>
       <c r="H44" t="n">
-        <v>245.3808142288514</v>
+        <v>245.380814228851</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.77268402840414</v>
+        <v>62.77268402840409</v>
       </c>
       <c r="T44" t="n">
-        <v>153.3768331302705</v>
+        <v>153.3768331302704</v>
       </c>
       <c r="U44" t="n">
-        <v>199.49087690365</v>
+        <v>199.4908769036499</v>
       </c>
       <c r="V44" t="n">
         <v>276.2300337712128</v>
       </c>
       <c r="W44" t="n">
-        <v>297.718744018491</v>
+        <v>297.7187440184909</v>
       </c>
       <c r="X44" t="n">
-        <v>318.208875979547</v>
+        <v>318.2088759795469</v>
       </c>
       <c r="Y44" t="n">
         <v>334.7157139571315</v>
@@ -4138,22 +4138,22 @@
         <v>115.7245963997057</v>
       </c>
       <c r="D46" t="n">
-        <v>97.09324831929027</v>
+        <v>97.09324831929023</v>
       </c>
       <c r="E46" t="n">
-        <v>94.91173794764708</v>
+        <v>94.91173794764704</v>
       </c>
       <c r="F46" t="n">
-        <v>93.89882332400916</v>
+        <v>93.89882332400911</v>
       </c>
       <c r="G46" t="n">
-        <v>114.6041163213608</v>
+        <v>114.6041163213607</v>
       </c>
       <c r="H46" t="n">
-        <v>94.12661785637181</v>
+        <v>94.12661785637177</v>
       </c>
       <c r="I46" t="n">
-        <v>47.85349002210113</v>
+        <v>47.85349002210109</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93024649081134</v>
+        <v>41.9302464908113</v>
       </c>
       <c r="S46" t="n">
         <v>139.9988124809303</v>
@@ -4198,7 +4198,7 @@
         <v>235.0007736376689</v>
       </c>
       <c r="X46" t="n">
-        <v>174.1874306901151</v>
+        <v>174.187430690115</v>
       </c>
       <c r="Y46" t="n">
         <v>167.0624286531727</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="C2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="D2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="E2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="F2" t="n">
-        <v>70.67772412824843</v>
+        <v>30.69401002537914</v>
       </c>
       <c r="G2" t="n">
-        <v>55.22041350689989</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H2" t="n">
         <v>15.2366994040306</v>
@@ -4331,16 +4331,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O2" t="n">
         <v>158.3355078473624</v>
@@ -4349,31 +4349,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="X2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.260178376266</v>
+        <v>37.6395107745826</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E3" t="n">
-        <v>83.88827101547153</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
         <v>119.1474696551402</v>
@@ -4431,28 +4431,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E4" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G4" t="n">
-        <v>105.6285745504463</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4504,34 +4504,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4472581485427</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2438924791353</v>
+        <v>77.6232248774519</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>70.67772412824843</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="H5" t="n">
         <v>55.22041350689989</v>
@@ -4568,49 +4568,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M5" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="T5" t="n">
-        <v>148.2438924791353</v>
+        <v>157.5906530831905</v>
       </c>
       <c r="U5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="V5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="W5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="X5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.2438924791353</v>
+        <v>117.6069389803212</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C6" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
         <v>3.166710156947247</v>
@@ -4653,16 +4653,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N6" t="n">
         <v>81.54278654139161</v>
       </c>
       <c r="O6" t="n">
-        <v>120.7308247336138</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
@@ -4671,25 +4671,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V6" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W6" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X6" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y6" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R7" t="n">
-        <v>90.46354404567346</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S7" t="n">
-        <v>65.64486044757699</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U7" t="n">
-        <v>25.66114634470771</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V7" t="n">
-        <v>25.66114634470771</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W7" t="n">
-        <v>25.66114634470771</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X7" t="n">
-        <v>25.66114634470771</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>50.09592500902001</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>50.09592500902001</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>50.09592500902001</v>
       </c>
       <c r="F8" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
         <v>42.35474834916943</v>
@@ -4814,40 +4814,40 @@
         <v>81.54278654139161</v>
       </c>
       <c r="N8" t="n">
-        <v>120.7308247336138</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C9" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D9" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L9" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N9" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>120.7308247336138</v>
-      </c>
-      <c r="O9" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="P9" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
@@ -4911,22 +4911,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E10" t="n">
-        <v>105.6285745504463</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F10" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4472581485427</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4472581485427</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4472581485427</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2315.147127112391</v>
+        <v>2315.147127112396</v>
       </c>
       <c r="C11" t="n">
-        <v>1946.184610171979</v>
+        <v>1946.184610171984</v>
       </c>
       <c r="D11" t="n">
-        <v>1587.918911565228</v>
+        <v>1587.918911565234</v>
       </c>
       <c r="E11" t="n">
-        <v>1202.130658966984</v>
+        <v>1271.4143885155</v>
       </c>
       <c r="F11" t="n">
-        <v>860.4284837258922</v>
+        <v>860.4284837258924</v>
       </c>
       <c r="G11" t="n">
-        <v>445.1296491811149</v>
+        <v>445.1296491811152</v>
       </c>
       <c r="H11" t="n">
-        <v>145.2275896581115</v>
+        <v>145.2275896581117</v>
       </c>
       <c r="I11" t="n">
-        <v>94.50300671082643</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="J11" t="n">
-        <v>431.9560550214633</v>
+        <v>264.5504060011104</v>
       </c>
       <c r="K11" t="n">
-        <v>1058.455503008158</v>
+        <v>570.1458955423516</v>
       </c>
       <c r="L11" t="n">
-        <v>1654.704707395113</v>
+        <v>1399.650487182806</v>
       </c>
       <c r="M11" t="n">
-        <v>2149.276541333991</v>
+        <v>1894.222321121683</v>
       </c>
       <c r="N11" t="n">
-        <v>2656.464872983766</v>
+        <v>2834.384107939323</v>
       </c>
       <c r="O11" t="n">
-        <v>3499.045350595488</v>
+        <v>3676.964585551045</v>
       </c>
       <c r="P11" t="n">
-        <v>4180.493911541253</v>
+        <v>4358.41314649681</v>
       </c>
       <c r="Q11" t="n">
-        <v>4615.011641427754</v>
+        <v>4615.01164142776</v>
       </c>
       <c r="R11" t="n">
-        <v>4725.150335541322</v>
+        <v>4725.150335541328</v>
       </c>
       <c r="S11" t="n">
-        <v>4609.700932786446</v>
+        <v>4609.700932786453</v>
       </c>
       <c r="T11" t="n">
-        <v>4402.732187504434</v>
+        <v>4402.73218750444</v>
       </c>
       <c r="U11" t="n">
-        <v>4149.183600027089</v>
+        <v>4149.183600027094</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.120712683518</v>
+        <v>3818.120712683523</v>
       </c>
       <c r="W11" t="n">
-        <v>3465.352057413404</v>
+        <v>3465.352057413409</v>
       </c>
       <c r="X11" t="n">
-        <v>3091.886299152324</v>
+        <v>3091.886299152329</v>
       </c>
       <c r="Y11" t="n">
-        <v>2701.746967176512</v>
+        <v>2701.746967176518</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5094,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.7680271700521</v>
+        <v>964.7680271700523</v>
       </c>
       <c r="C12" t="n">
-        <v>790.3149978889251</v>
+        <v>790.3149978889253</v>
       </c>
       <c r="D12" t="n">
-        <v>641.3805882276738</v>
+        <v>641.380588227674</v>
       </c>
       <c r="E12" t="n">
-        <v>482.1431332222184</v>
+        <v>482.1431332222185</v>
       </c>
       <c r="F12" t="n">
-        <v>335.6085752491033</v>
+        <v>335.6085752491034</v>
       </c>
       <c r="G12" t="n">
-        <v>199.1243487546835</v>
+        <v>199.1243487546836</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4526290761584</v>
+        <v>107.4526290761585</v>
       </c>
       <c r="I12" t="n">
-        <v>94.50300671082643</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="J12" t="n">
-        <v>301.7943508168233</v>
+        <v>176.9642258298186</v>
       </c>
       <c r="K12" t="n">
-        <v>520.8885332458437</v>
+        <v>396.0584082588392</v>
       </c>
       <c r="L12" t="n">
-        <v>861.8102405782711</v>
+        <v>736.9801155912664</v>
       </c>
       <c r="M12" t="n">
-        <v>1279.006660969391</v>
+        <v>1154.176535982386</v>
       </c>
       <c r="N12" t="n">
-        <v>1721.653674117318</v>
+        <v>1596.823549130314</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.369417835565</v>
+        <v>1979.539292848561</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.199476742158</v>
+        <v>2267.369351755154</v>
       </c>
       <c r="Q12" t="n">
-        <v>2590.879423150146</v>
+        <v>2590.879423150147</v>
       </c>
       <c r="R12" t="n">
-        <v>2590.879423150146</v>
+        <v>2590.879423150147</v>
       </c>
       <c r="S12" t="n">
         <v>2459.191668244479</v>
       </c>
       <c r="T12" t="n">
-        <v>2266.06044382344</v>
+        <v>2266.060443823441</v>
       </c>
       <c r="U12" t="n">
         <v>2037.984628120551</v>
       </c>
       <c r="V12" t="n">
-        <v>1802.832519888808</v>
+        <v>1802.832519888809</v>
       </c>
       <c r="W12" t="n">
         <v>1548.595163160607</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.3588701313726</v>
+        <v>198.1133835014392</v>
       </c>
       <c r="C13" t="n">
-        <v>539.4226872034657</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="D13" t="n">
-        <v>389.3060477911299</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="E13" t="n">
-        <v>241.3929542087368</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="F13" t="n">
-        <v>94.50300671082643</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="G13" t="n">
-        <v>94.50300671082643</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="H13" t="n">
-        <v>94.50300671082643</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="I13" t="n">
-        <v>94.50300671082643</v>
+        <v>94.50300671082655</v>
       </c>
       <c r="J13" t="n">
-        <v>132.5890495992655</v>
+        <v>132.5890495992658</v>
       </c>
       <c r="K13" t="n">
-        <v>325.0129543486328</v>
+        <v>325.012954348633</v>
       </c>
       <c r="L13" t="n">
-        <v>626.7757377991027</v>
+        <v>626.775737799103</v>
       </c>
       <c r="M13" t="n">
-        <v>955.3314057778272</v>
+        <v>955.3314057778275</v>
       </c>
       <c r="N13" t="n">
         <v>1281.509370751897</v>
@@ -5224,25 +5224,25 @@
         <v>1856.617559833765</v>
       </c>
       <c r="S13" t="n">
-        <v>1856.617559833765</v>
+        <v>1663.161966722803</v>
       </c>
       <c r="T13" t="n">
-        <v>1856.617559833765</v>
+        <v>1440.961463342011</v>
       </c>
       <c r="U13" t="n">
-        <v>1567.509153964298</v>
+        <v>1151.853057472544</v>
       </c>
       <c r="V13" t="n">
-        <v>1312.824665758411</v>
+        <v>897.1685692666568</v>
       </c>
       <c r="W13" t="n">
-        <v>1023.40749572145</v>
+        <v>607.7513992296963</v>
       </c>
       <c r="X13" t="n">
-        <v>1023.40749572145</v>
+        <v>379.7618483316789</v>
       </c>
       <c r="Y13" t="n">
-        <v>890.0073349616123</v>
+        <v>379.7618483316789</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2385.844810325162</v>
+        <v>2385.84481032516</v>
       </c>
       <c r="C14" t="n">
-        <v>2016.88229338475</v>
+        <v>2016.882293384749</v>
       </c>
       <c r="D14" t="n">
-        <v>1658.616594778</v>
+        <v>1658.616594777999</v>
       </c>
       <c r="E14" t="n">
         <v>1272.828342179755</v>
@@ -5267,10 +5267,10 @@
         <v>861.8424373901478</v>
       </c>
       <c r="G14" t="n">
-        <v>446.5436028453705</v>
+        <v>446.5436028453703</v>
       </c>
       <c r="H14" t="n">
-        <v>146.6415433223669</v>
+        <v>146.6415433223667</v>
       </c>
       <c r="I14" t="n">
         <v>95.91696037508186</v>
@@ -5279,25 +5279,25 @@
         <v>433.3700086857187</v>
       </c>
       <c r="K14" t="n">
-        <v>1059.869456672413</v>
+        <v>738.9654982269599</v>
       </c>
       <c r="L14" t="n">
-        <v>1889.374048312867</v>
+        <v>1231.050514046137</v>
       </c>
       <c r="M14" t="n">
-        <v>2538.55494563653</v>
+        <v>2170.640746142918</v>
       </c>
       <c r="N14" t="n">
-        <v>3045.743277286305</v>
+        <v>3110.802532960558</v>
       </c>
       <c r="O14" t="n">
-        <v>3888.323754898027</v>
+        <v>3953.38301057228</v>
       </c>
       <c r="P14" t="n">
-        <v>4251.191594754024</v>
+        <v>4316.250850428277</v>
       </c>
       <c r="Q14" t="n">
-        <v>4685.709324640525</v>
+        <v>4750.768580314778</v>
       </c>
       <c r="R14" t="n">
         <v>4795.848018754093</v>
@@ -5312,16 +5312,16 @@
         <v>4219.881283239859</v>
       </c>
       <c r="V14" t="n">
-        <v>3888.81839589629</v>
+        <v>3888.818395896288</v>
       </c>
       <c r="W14" t="n">
-        <v>3536.049740626175</v>
+        <v>3536.049740626174</v>
       </c>
       <c r="X14" t="n">
-        <v>3162.583982365095</v>
+        <v>3162.583982365094</v>
       </c>
       <c r="Y14" t="n">
-        <v>2772.444650389284</v>
+        <v>2772.444650389282</v>
       </c>
     </row>
     <row r="15">
@@ -5367,16 +5367,16 @@
         <v>1155.590489646642</v>
       </c>
       <c r="N15" t="n">
-        <v>1598.237502794569</v>
+        <v>1741.705826669335</v>
       </c>
       <c r="O15" t="n">
-        <v>2161.975742435472</v>
+        <v>2124.421570387582</v>
       </c>
       <c r="P15" t="n">
-        <v>2449.805801342064</v>
+        <v>2412.251629294175</v>
       </c>
       <c r="Q15" t="n">
-        <v>2592.293376814402</v>
+        <v>2554.739204766512</v>
       </c>
       <c r="R15" t="n">
         <v>2592.293376814402</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>830.7238075500449</v>
+        <v>264.8531433029888</v>
       </c>
       <c r="C16" t="n">
-        <v>661.787624622138</v>
+        <v>95.91696037508189</v>
       </c>
       <c r="D16" t="n">
-        <v>659.1339916308082</v>
+        <v>95.91696037508189</v>
       </c>
       <c r="E16" t="n">
-        <v>511.2208980484151</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="F16" t="n">
-        <v>511.2208980484151</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="G16" t="n">
-        <v>343.4165131794425</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="H16" t="n">
-        <v>196.2964701942972</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="I16" t="n">
         <v>95.91696037508186</v>
@@ -5437,16 +5437,16 @@
         <v>134.0030032635211</v>
       </c>
       <c r="K16" t="n">
-        <v>326.4269080128884</v>
+        <v>326.4269080128882</v>
       </c>
       <c r="L16" t="n">
-        <v>628.1896914633584</v>
+        <v>628.1896914633583</v>
       </c>
       <c r="M16" t="n">
-        <v>956.7453594420829</v>
+        <v>956.7453594420828</v>
       </c>
       <c r="N16" t="n">
-        <v>1282.923324416153</v>
+        <v>1282.923324416152</v>
       </c>
       <c r="O16" t="n">
         <v>1568.185172988681</v>
@@ -5458,28 +5458,28 @@
         <v>1858.03151349802</v>
       </c>
       <c r="R16" t="n">
-        <v>1858.03151349802</v>
+        <v>1763.635077952835</v>
       </c>
       <c r="S16" t="n">
-        <v>1858.03151349802</v>
+        <v>1722.704754769865</v>
       </c>
       <c r="T16" t="n">
-        <v>1858.03151349802</v>
+        <v>1500.504251389073</v>
       </c>
       <c r="U16" t="n">
-        <v>1568.923107628553</v>
+        <v>1211.395845519606</v>
       </c>
       <c r="V16" t="n">
-        <v>1568.923107628553</v>
+        <v>956.7113573137193</v>
       </c>
       <c r="W16" t="n">
-        <v>1279.505937591592</v>
+        <v>667.2941872767586</v>
       </c>
       <c r="X16" t="n">
-        <v>1051.516386693575</v>
+        <v>667.2941872767586</v>
       </c>
       <c r="Y16" t="n">
-        <v>830.7238075500449</v>
+        <v>446.5016081332285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2385.84481032516</v>
+        <v>2385.844810325161</v>
       </c>
       <c r="C17" t="n">
-        <v>2016.882293384749</v>
+        <v>2016.88229338475</v>
       </c>
       <c r="D17" t="n">
-        <v>1658.616594777998</v>
+        <v>1658.616594778</v>
       </c>
       <c r="E17" t="n">
-        <v>1272.828342179754</v>
+        <v>1272.828342179755</v>
       </c>
       <c r="F17" t="n">
-        <v>861.8424373901462</v>
+        <v>861.8424373901478</v>
       </c>
       <c r="G17" t="n">
-        <v>446.5436028453698</v>
+        <v>446.5436028453705</v>
       </c>
       <c r="H17" t="n">
         <v>146.6415433223669</v>
@@ -5513,28 +5513,28 @@
         <v>95.91696037508186</v>
       </c>
       <c r="J17" t="n">
-        <v>433.3700086857187</v>
+        <v>265.9643596653657</v>
       </c>
       <c r="K17" t="n">
-        <v>1059.869456672413</v>
+        <v>892.4638076520599</v>
       </c>
       <c r="L17" t="n">
-        <v>1725.402390607884</v>
+        <v>1308.483796887568</v>
       </c>
       <c r="M17" t="n">
-        <v>2219.974224546762</v>
+        <v>2248.07402898435</v>
       </c>
       <c r="N17" t="n">
-        <v>2727.162556196537</v>
+        <v>3110.802532960558</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.743033808259</v>
+        <v>3953.38301057228</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.191594754024</v>
+        <v>4316.250850428277</v>
       </c>
       <c r="Q17" t="n">
-        <v>4685.709324640525</v>
+        <v>4750.768580314778</v>
       </c>
       <c r="R17" t="n">
         <v>4795.848018754093</v>
@@ -5546,19 +5546,19 @@
         <v>4473.429870717205</v>
       </c>
       <c r="U17" t="n">
-        <v>4219.881283239859</v>
+        <v>4219.88128323986</v>
       </c>
       <c r="V17" t="n">
-        <v>3888.818395896288</v>
+        <v>3888.818395896289</v>
       </c>
       <c r="W17" t="n">
-        <v>3536.049740626174</v>
+        <v>3536.049740626175</v>
       </c>
       <c r="X17" t="n">
-        <v>3162.583982365094</v>
+        <v>3162.583982365095</v>
       </c>
       <c r="Y17" t="n">
-        <v>2772.444650389282</v>
+        <v>2772.444650389283</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>95.91696037508186</v>
       </c>
       <c r="J18" t="n">
-        <v>303.2083044810787</v>
+        <v>178.3781794940739</v>
       </c>
       <c r="K18" t="n">
-        <v>522.3024869100992</v>
+        <v>397.4723619230945</v>
       </c>
       <c r="L18" t="n">
-        <v>863.2241942425266</v>
+        <v>738.3940692555218</v>
       </c>
       <c r="M18" t="n">
-        <v>1280.420614633646</v>
+        <v>1155.590489646642</v>
       </c>
       <c r="N18" t="n">
-        <v>1723.067627781574</v>
+        <v>1598.237502794569</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.783371499821</v>
+        <v>2161.975742435472</v>
       </c>
       <c r="P18" t="n">
-        <v>2393.613430406413</v>
+        <v>2449.805801342064</v>
       </c>
       <c r="Q18" t="n">
         <v>2592.293376814402</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2352744935343</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="C19" t="n">
-        <v>708.6410257366937</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="D19" t="n">
-        <v>558.5243863243579</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="E19" t="n">
-        <v>410.6112927419648</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="F19" t="n">
-        <v>263.7213452440544</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="G19" t="n">
         <v>95.91696037508186</v>
@@ -5677,13 +5677,13 @@
         <v>326.4269080128882</v>
       </c>
       <c r="L19" t="n">
-        <v>628.1896914633583</v>
+        <v>628.1896914633581</v>
       </c>
       <c r="M19" t="n">
-        <v>956.7453594420828</v>
+        <v>956.7453594420826</v>
       </c>
       <c r="N19" t="n">
-        <v>1282.923324416153</v>
+        <v>1282.923324416152</v>
       </c>
       <c r="O19" t="n">
         <v>1568.185172988681</v>
@@ -5698,25 +5698,25 @@
         <v>1763.635077952835</v>
       </c>
       <c r="S19" t="n">
-        <v>1763.635077952835</v>
+        <v>1570.179484841873</v>
       </c>
       <c r="T19" t="n">
-        <v>1541.434574572042</v>
+        <v>1347.97898146108</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.434574572042</v>
+        <v>1058.870575591613</v>
       </c>
       <c r="V19" t="n">
-        <v>1541.434574572042</v>
+        <v>804.1860873857266</v>
       </c>
       <c r="W19" t="n">
-        <v>1252.017404535082</v>
+        <v>514.7689173487661</v>
       </c>
       <c r="X19" t="n">
-        <v>1024.027853637064</v>
+        <v>498.3580043488516</v>
       </c>
       <c r="Y19" t="n">
-        <v>803.2352744935343</v>
+        <v>277.5654252053216</v>
       </c>
     </row>
     <row r="20">
@@ -5747,40 +5747,40 @@
         <v>146.6415433223669</v>
       </c>
       <c r="I20" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="J20" t="n">
-        <v>433.3700086857187</v>
+        <v>265.9643596653657</v>
       </c>
       <c r="K20" t="n">
-        <v>1059.869456672413</v>
+        <v>892.4638076520599</v>
       </c>
       <c r="L20" t="n">
-        <v>1475.889445907921</v>
+        <v>1502.620776193325</v>
       </c>
       <c r="M20" t="n">
-        <v>1970.461279846799</v>
+        <v>1997.192610132202</v>
       </c>
       <c r="N20" t="n">
-        <v>2910.623066664438</v>
+        <v>2937.354396949842</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.743033808259</v>
+        <v>3779.934874561564</v>
       </c>
       <c r="P20" t="n">
-        <v>4251.191594754024</v>
+        <v>4461.383435507329</v>
       </c>
       <c r="Q20" t="n">
-        <v>4685.709324640525</v>
+        <v>4685.709324640524</v>
       </c>
       <c r="R20" t="n">
-        <v>4795.848018754093</v>
+        <v>4795.848018754092</v>
       </c>
       <c r="S20" t="n">
-        <v>4680.398615999217</v>
+        <v>4680.398615999216</v>
       </c>
       <c r="T20" t="n">
-        <v>4473.429870717205</v>
+        <v>4473.429870717204</v>
       </c>
       <c r="U20" t="n">
         <v>4219.88128323986</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1819808343076</v>
+        <v>966.1819808343074</v>
       </c>
       <c r="C21" t="n">
-        <v>791.7289515531807</v>
+        <v>791.7289515531804</v>
       </c>
       <c r="D21" t="n">
-        <v>642.7945418919294</v>
+        <v>642.7945418919292</v>
       </c>
       <c r="E21" t="n">
-        <v>483.5570868864738</v>
+        <v>483.5570868864737</v>
       </c>
       <c r="F21" t="n">
-        <v>337.0225289133588</v>
+        <v>337.0225289133587</v>
       </c>
       <c r="G21" t="n">
         <v>200.5383024189389</v>
@@ -5826,28 +5826,28 @@
         <v>108.8665827404138</v>
       </c>
       <c r="I21" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="J21" t="n">
-        <v>303.2083044810787</v>
+        <v>178.3781794940739</v>
       </c>
       <c r="K21" t="n">
-        <v>522.3024869100992</v>
+        <v>397.4723619230945</v>
       </c>
       <c r="L21" t="n">
-        <v>863.2241942425266</v>
+        <v>738.3940692555218</v>
       </c>
       <c r="M21" t="n">
-        <v>1280.420614633646</v>
+        <v>1336.612985569297</v>
       </c>
       <c r="N21" t="n">
-        <v>1723.067627781574</v>
+        <v>1779.259998717224</v>
       </c>
       <c r="O21" t="n">
-        <v>2105.783371499821</v>
+        <v>2161.975742435472</v>
       </c>
       <c r="P21" t="n">
-        <v>2393.613430406413</v>
+        <v>2449.805801342064</v>
       </c>
       <c r="Q21" t="n">
         <v>2592.293376814402</v>
@@ -5862,7 +5862,7 @@
         <v>2267.474397487696</v>
       </c>
       <c r="U21" t="n">
-        <v>2039.398581784807</v>
+        <v>2039.398581784806</v>
       </c>
       <c r="V21" t="n">
         <v>1804.246473553064</v>
@@ -5874,7 +5874,7 @@
         <v>1342.157616619329</v>
       </c>
       <c r="Y21" t="n">
-        <v>1134.397317854376</v>
+        <v>1134.397317854375</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.91696037508186</v>
+        <v>264.8531433029888</v>
       </c>
       <c r="C22" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="D22" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="E22" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="F22" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="G22" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="H22" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="I22" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508184</v>
       </c>
       <c r="J22" t="n">
         <v>134.0030032635211</v>
       </c>
       <c r="K22" t="n">
-        <v>326.4269080128882</v>
+        <v>326.4269080128884</v>
       </c>
       <c r="L22" t="n">
-        <v>628.1896914633583</v>
+        <v>628.1896914633584</v>
       </c>
       <c r="M22" t="n">
-        <v>956.7453594420826</v>
+        <v>956.7453594420828</v>
       </c>
       <c r="N22" t="n">
-        <v>1282.923324416152</v>
+        <v>1282.923324416153</v>
       </c>
       <c r="O22" t="n">
         <v>1568.185172988681</v>
@@ -5944,16 +5944,16 @@
         <v>1153.267011136799</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.76472528383</v>
+        <v>1003.052443381497</v>
       </c>
       <c r="W22" t="n">
-        <v>726.347555246869</v>
+        <v>713.6352733445362</v>
       </c>
       <c r="X22" t="n">
-        <v>498.3580043488516</v>
+        <v>485.6457224465189</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.5654252053216</v>
+        <v>264.8531433029888</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2385.844810325161</v>
       </c>
       <c r="C23" t="n">
-        <v>2016.88229338475</v>
+        <v>2016.882293384749</v>
       </c>
       <c r="D23" t="n">
         <v>1658.616594777999</v>
@@ -5987,28 +5987,28 @@
         <v>95.91696037508186</v>
       </c>
       <c r="J23" t="n">
-        <v>433.3700086857187</v>
+        <v>265.9643596653657</v>
       </c>
       <c r="K23" t="n">
-        <v>1059.869456672413</v>
+        <v>892.4638076520599</v>
       </c>
       <c r="L23" t="n">
-        <v>1725.402390607884</v>
+        <v>1308.483796887568</v>
       </c>
       <c r="M23" t="n">
-        <v>2219.974224546762</v>
+        <v>2248.07402898435</v>
       </c>
       <c r="N23" t="n">
-        <v>2727.162556196537</v>
+        <v>2792.22181187079</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.743033808259</v>
+        <v>3634.802289482512</v>
       </c>
       <c r="P23" t="n">
-        <v>4251.191594754024</v>
+        <v>4316.250850428277</v>
       </c>
       <c r="Q23" t="n">
-        <v>4685.709324640525</v>
+        <v>4750.768580314778</v>
       </c>
       <c r="R23" t="n">
         <v>4795.848018754093</v>
@@ -6020,16 +6020,16 @@
         <v>4473.429870717205</v>
       </c>
       <c r="U23" t="n">
-        <v>4219.88128323986</v>
+        <v>4219.881283239859</v>
       </c>
       <c r="V23" t="n">
-        <v>3888.818395896289</v>
+        <v>3888.818395896288</v>
       </c>
       <c r="W23" t="n">
-        <v>3536.049740626175</v>
+        <v>3536.049740626174</v>
       </c>
       <c r="X23" t="n">
-        <v>3162.583982365095</v>
+        <v>3162.583982365094</v>
       </c>
       <c r="Y23" t="n">
         <v>2772.444650389283</v>
@@ -6066,25 +6066,25 @@
         <v>95.91696037508186</v>
       </c>
       <c r="J24" t="n">
-        <v>303.2083044810787</v>
+        <v>178.3781794940739</v>
       </c>
       <c r="K24" t="n">
-        <v>522.3024869100992</v>
+        <v>397.4723619230945</v>
       </c>
       <c r="L24" t="n">
-        <v>863.2241942425266</v>
+        <v>738.3940692555218</v>
       </c>
       <c r="M24" t="n">
-        <v>1280.420614633646</v>
+        <v>1336.612985569297</v>
       </c>
       <c r="N24" t="n">
-        <v>1723.067627781574</v>
+        <v>1779.259998717224</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.783371499821</v>
+        <v>2161.975742435472</v>
       </c>
       <c r="P24" t="n">
-        <v>2393.613430406413</v>
+        <v>2449.805801342064</v>
       </c>
       <c r="Q24" t="n">
         <v>2592.293376814402</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>243.830053957475</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="C25" t="n">
-        <v>243.830053957475</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="D25" t="n">
-        <v>243.830053957475</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="E25" t="n">
         <v>95.91696037508186</v>
@@ -6148,16 +6148,16 @@
         <v>134.0030032635211</v>
       </c>
       <c r="K25" t="n">
-        <v>326.4269080128879</v>
+        <v>326.4269080128884</v>
       </c>
       <c r="L25" t="n">
-        <v>628.1896914633578</v>
+        <v>628.1896914633584</v>
       </c>
       <c r="M25" t="n">
-        <v>956.7453594420823</v>
+        <v>956.7453594420829</v>
       </c>
       <c r="N25" t="n">
-        <v>1282.923324416152</v>
+        <v>1282.923324416153</v>
       </c>
       <c r="O25" t="n">
         <v>1568.185172988681</v>
@@ -6166,31 +6166,31 @@
         <v>1788.755282720754</v>
       </c>
       <c r="Q25" t="n">
-        <v>1858.031513498021</v>
+        <v>1858.03151349802</v>
       </c>
       <c r="R25" t="n">
-        <v>1858.031513498021</v>
+        <v>1763.635077952835</v>
       </c>
       <c r="S25" t="n">
-        <v>1664.575920387058</v>
+        <v>1570.179484841873</v>
       </c>
       <c r="T25" t="n">
-        <v>1442.375417006266</v>
+        <v>1347.978981461081</v>
       </c>
       <c r="U25" t="n">
-        <v>1153.267011136799</v>
+        <v>1058.870575591614</v>
       </c>
       <c r="V25" t="n">
-        <v>898.5825229309122</v>
+        <v>804.1860873857269</v>
       </c>
       <c r="W25" t="n">
-        <v>692.6121839990225</v>
+        <v>514.7689173487663</v>
       </c>
       <c r="X25" t="n">
-        <v>464.6226331010051</v>
+        <v>286.7793664507489</v>
       </c>
       <c r="Y25" t="n">
-        <v>243.830053957475</v>
+        <v>277.5654252053216</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2385.844810325161</v>
+        <v>2385.84481032516</v>
       </c>
       <c r="C26" t="n">
-        <v>2016.88229338475</v>
+        <v>2016.882293384749</v>
       </c>
       <c r="D26" t="n">
-        <v>1658.616594778</v>
+        <v>1658.616594777999</v>
       </c>
       <c r="E26" t="n">
-        <v>1272.828342179756</v>
+        <v>1272.828342179755</v>
       </c>
       <c r="F26" t="n">
-        <v>861.842437390148</v>
+        <v>861.8424373901474</v>
       </c>
       <c r="G26" t="n">
         <v>446.5436028453705</v>
       </c>
       <c r="H26" t="n">
-        <v>146.641543322367</v>
+        <v>146.6415433223669</v>
       </c>
       <c r="I26" t="n">
-        <v>95.91696037508187</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="J26" t="n">
         <v>265.9643596653657</v>
       </c>
       <c r="K26" t="n">
-        <v>571.5598492066069</v>
+        <v>892.4638076520599</v>
       </c>
       <c r="L26" t="n">
-        <v>1401.064440847061</v>
+        <v>1721.968399292514</v>
       </c>
       <c r="M26" t="n">
-        <v>2340.654672943842</v>
+        <v>2439.244045256574</v>
       </c>
       <c r="N26" t="n">
-        <v>3280.816459761482</v>
+        <v>3379.405832074214</v>
       </c>
       <c r="O26" t="n">
-        <v>4123.396937373203</v>
+        <v>3844.994130235818</v>
       </c>
       <c r="P26" t="n">
-        <v>4486.2647772292</v>
+        <v>4526.442691181583</v>
       </c>
       <c r="Q26" t="n">
-        <v>4710.590666362395</v>
+        <v>4750.768580314778</v>
       </c>
       <c r="R26" t="n">
-        <v>4795.848018754094</v>
+        <v>4795.848018754093</v>
       </c>
       <c r="S26" t="n">
-        <v>4680.398615999218</v>
+        <v>4680.398615999217</v>
       </c>
       <c r="T26" t="n">
-        <v>4473.429870717206</v>
+        <v>4473.429870717205</v>
       </c>
       <c r="U26" t="n">
-        <v>4219.88128323986</v>
+        <v>4219.881283239859</v>
       </c>
       <c r="V26" t="n">
-        <v>3888.818395896289</v>
+        <v>3888.818395896288</v>
       </c>
       <c r="W26" t="n">
-        <v>3536.049740626175</v>
+        <v>3536.049740626174</v>
       </c>
       <c r="X26" t="n">
-        <v>3162.583982365095</v>
+        <v>3162.583982365094</v>
       </c>
       <c r="Y26" t="n">
-        <v>2772.444650389283</v>
+        <v>2772.444650389282</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>108.8665827404138</v>
       </c>
       <c r="I27" t="n">
-        <v>95.91696037508187</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="J27" t="n">
-        <v>303.2083044810787</v>
+        <v>178.3781794940739</v>
       </c>
       <c r="K27" t="n">
-        <v>522.3024869100992</v>
+        <v>397.4723619230945</v>
       </c>
       <c r="L27" t="n">
-        <v>863.2241942425266</v>
+        <v>738.3940692555218</v>
       </c>
       <c r="M27" t="n">
-        <v>1280.420614633646</v>
+        <v>1155.590489646642</v>
       </c>
       <c r="N27" t="n">
-        <v>1723.067627781574</v>
+        <v>1598.237502794569</v>
       </c>
       <c r="O27" t="n">
-        <v>2105.783371499821</v>
+        <v>1980.953246512816</v>
       </c>
       <c r="P27" t="n">
-        <v>2393.613430406413</v>
+        <v>2449.805801342064</v>
       </c>
       <c r="Q27" t="n">
         <v>2592.293376814402</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.7775711571068</v>
+        <v>264.8531433029888</v>
       </c>
       <c r="C28" t="n">
-        <v>410.8413882291998</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="D28" t="n">
-        <v>410.8413882291998</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="E28" t="n">
-        <v>410.8413882291998</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="F28" t="n">
-        <v>410.8413882291998</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="G28" t="n">
-        <v>243.0370033602272</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="H28" t="n">
         <v>95.91696037508187</v>
@@ -6385,16 +6385,16 @@
         <v>134.0030032635211</v>
       </c>
       <c r="K28" t="n">
-        <v>326.4269080128883</v>
+        <v>326.4269080128882</v>
       </c>
       <c r="L28" t="n">
         <v>628.1896914633583</v>
       </c>
       <c r="M28" t="n">
-        <v>956.7453594420828</v>
+        <v>956.7453594420824</v>
       </c>
       <c r="N28" t="n">
-        <v>1282.923324416153</v>
+        <v>1282.923324416152</v>
       </c>
       <c r="O28" t="n">
         <v>1568.185172988681</v>
@@ -6406,28 +6406,28 @@
         <v>1858.03151349802</v>
       </c>
       <c r="R28" t="n">
-        <v>1858.03151349802</v>
+        <v>1763.635077952834</v>
       </c>
       <c r="S28" t="n">
-        <v>1664.575920387058</v>
+        <v>1570.179484841872</v>
       </c>
       <c r="T28" t="n">
-        <v>1442.375417006266</v>
+        <v>1347.97898146108</v>
       </c>
       <c r="U28" t="n">
-        <v>1305.527694230194</v>
+        <v>1058.870575591613</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.843206024307</v>
+        <v>804.1860873857263</v>
       </c>
       <c r="W28" t="n">
-        <v>761.4260359873465</v>
+        <v>713.6352733445362</v>
       </c>
       <c r="X28" t="n">
-        <v>761.4260359873465</v>
+        <v>485.6457224465189</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.4260359873465</v>
+        <v>264.8531433029888</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2385.84481032516</v>
+        <v>2385.844810325162</v>
       </c>
       <c r="C29" t="n">
-        <v>2016.882293384749</v>
+        <v>2016.88229338475</v>
       </c>
       <c r="D29" t="n">
-        <v>1658.616594777999</v>
+        <v>1658.616594778</v>
       </c>
       <c r="E29" t="n">
         <v>1272.828342179755</v>
       </c>
       <c r="F29" t="n">
-        <v>861.8424373901471</v>
+        <v>861.8424373901478</v>
       </c>
       <c r="G29" t="n">
         <v>446.5436028453705</v>
@@ -6458,55 +6458,55 @@
         <v>146.6415433223669</v>
       </c>
       <c r="I29" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="J29" t="n">
-        <v>265.9643596653657</v>
+        <v>433.3700086857188</v>
       </c>
       <c r="K29" t="n">
-        <v>571.5598492066069</v>
+        <v>738.96549822696</v>
       </c>
       <c r="L29" t="n">
-        <v>1401.064440847061</v>
+        <v>1568.470089867414</v>
       </c>
       <c r="M29" t="n">
-        <v>2340.654672943842</v>
+        <v>2219.974224546763</v>
       </c>
       <c r="N29" t="n">
-        <v>3280.816459761482</v>
+        <v>2727.162556196538</v>
       </c>
       <c r="O29" t="n">
-        <v>4123.396937373203</v>
+        <v>3569.74303380826</v>
       </c>
       <c r="P29" t="n">
-        <v>4486.2647772292</v>
+        <v>4251.191594754025</v>
       </c>
       <c r="Q29" t="n">
-        <v>4710.590666362395</v>
+        <v>4685.709324640526</v>
       </c>
       <c r="R29" t="n">
-        <v>4795.848018754093</v>
+        <v>4795.848018754094</v>
       </c>
       <c r="S29" t="n">
-        <v>4680.398615999217</v>
+        <v>4680.398615999218</v>
       </c>
       <c r="T29" t="n">
-        <v>4473.429870717205</v>
+        <v>4473.429870717206</v>
       </c>
       <c r="U29" t="n">
-        <v>4219.881283239859</v>
+        <v>4219.88128323986</v>
       </c>
       <c r="V29" t="n">
-        <v>3888.818395896288</v>
+        <v>3888.818395896289</v>
       </c>
       <c r="W29" t="n">
-        <v>3536.049740626174</v>
+        <v>3536.049740626175</v>
       </c>
       <c r="X29" t="n">
-        <v>3162.583982365094</v>
+        <v>3162.583982365095</v>
       </c>
       <c r="Y29" t="n">
-        <v>2772.444650389282</v>
+        <v>2772.444650389283</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>108.8665827404138</v>
       </c>
       <c r="I30" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="J30" t="n">
-        <v>303.2083044810787</v>
+        <v>178.3781794940739</v>
       </c>
       <c r="K30" t="n">
-        <v>522.3024869100992</v>
+        <v>578.4948578457497</v>
       </c>
       <c r="L30" t="n">
-        <v>863.2241942425266</v>
+        <v>919.4165651781771</v>
       </c>
       <c r="M30" t="n">
-        <v>1280.420614633646</v>
+        <v>1336.612985569297</v>
       </c>
       <c r="N30" t="n">
-        <v>1723.067627781574</v>
+        <v>1779.259998717224</v>
       </c>
       <c r="O30" t="n">
-        <v>2105.783371499821</v>
+        <v>2161.975742435472</v>
       </c>
       <c r="P30" t="n">
-        <v>2393.613430406413</v>
+        <v>2449.805801342064</v>
       </c>
       <c r="Q30" t="n">
         <v>2592.293376814402</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>650.6404841006186</v>
+        <v>414.9697827153245</v>
       </c>
       <c r="C31" t="n">
-        <v>650.6404841006186</v>
+        <v>246.0335997874176</v>
       </c>
       <c r="D31" t="n">
-        <v>500.5238446882829</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="E31" t="n">
-        <v>500.5238446882829</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="F31" t="n">
-        <v>500.5238446882829</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="G31" t="n">
-        <v>332.7194598193103</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="H31" t="n">
-        <v>185.599416834165</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="I31" t="n">
-        <v>95.91696037508186</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="J31" t="n">
         <v>134.0030032635211</v>
       </c>
       <c r="K31" t="n">
-        <v>326.4269080128882</v>
+        <v>326.4269080128883</v>
       </c>
       <c r="L31" t="n">
-        <v>628.189691463358</v>
+        <v>628.1896914633583</v>
       </c>
       <c r="M31" t="n">
-        <v>956.7453594420825</v>
+        <v>956.7453594420828</v>
       </c>
       <c r="N31" t="n">
-        <v>1282.923324416152</v>
+        <v>1282.923324416153</v>
       </c>
       <c r="O31" t="n">
         <v>1568.185172988681</v>
@@ -6649,22 +6649,22 @@
         <v>1570.179484841873</v>
       </c>
       <c r="T31" t="n">
-        <v>1570.179484841873</v>
+        <v>1347.97898146108</v>
       </c>
       <c r="U31" t="n">
-        <v>1281.071078972406</v>
+        <v>1058.870575591613</v>
       </c>
       <c r="V31" t="n">
-        <v>1281.071078972406</v>
+        <v>1058.870575591613</v>
       </c>
       <c r="W31" t="n">
-        <v>1281.071078972406</v>
+        <v>817.4108266890944</v>
       </c>
       <c r="X31" t="n">
-        <v>1053.081528074388</v>
+        <v>817.4108266890944</v>
       </c>
       <c r="Y31" t="n">
-        <v>832.2889489308583</v>
+        <v>596.6182475455643</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1272.828342179756</v>
       </c>
       <c r="F32" t="n">
-        <v>861.842437390148</v>
+        <v>861.8424373901482</v>
       </c>
       <c r="G32" t="n">
-        <v>446.5436028453707</v>
+        <v>446.543602845371</v>
       </c>
       <c r="H32" t="n">
         <v>146.6415433223669</v>
@@ -6698,28 +6698,28 @@
         <v>95.91696037508187</v>
       </c>
       <c r="J32" t="n">
-        <v>433.3700086857188</v>
+        <v>265.9643596653657</v>
       </c>
       <c r="K32" t="n">
-        <v>1059.869456672413</v>
+        <v>571.5598492066069</v>
       </c>
       <c r="L32" t="n">
-        <v>1725.402390607885</v>
+        <v>1345.443248124234</v>
       </c>
       <c r="M32" t="n">
-        <v>2219.974224546763</v>
+        <v>2285.033480221016</v>
       </c>
       <c r="N32" t="n">
-        <v>2727.162556196538</v>
+        <v>2792.221811870791</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.74303380826</v>
+        <v>3634.802289482513</v>
       </c>
       <c r="P32" t="n">
-        <v>4251.191594754025</v>
+        <v>4316.250850428278</v>
       </c>
       <c r="Q32" t="n">
-        <v>4685.709324640526</v>
+        <v>4750.768580314779</v>
       </c>
       <c r="R32" t="n">
         <v>4795.848018754094</v>
@@ -6777,25 +6777,25 @@
         <v>95.91696037508187</v>
       </c>
       <c r="J33" t="n">
-        <v>303.2083044810787</v>
+        <v>178.3781794940739</v>
       </c>
       <c r="K33" t="n">
-        <v>522.3024869100992</v>
+        <v>397.4723619230945</v>
       </c>
       <c r="L33" t="n">
-        <v>863.2241942425266</v>
+        <v>738.3940692555218</v>
       </c>
       <c r="M33" t="n">
-        <v>1280.420614633646</v>
+        <v>1336.612985569297</v>
       </c>
       <c r="N33" t="n">
-        <v>1723.067627781574</v>
+        <v>1779.259998717224</v>
       </c>
       <c r="O33" t="n">
-        <v>2105.783371499821</v>
+        <v>2161.975742435472</v>
       </c>
       <c r="P33" t="n">
-        <v>2393.613430406413</v>
+        <v>2449.805801342064</v>
       </c>
       <c r="Q33" t="n">
         <v>2592.293376814402</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>490.3524314399174</v>
+        <v>95.91696037508186</v>
       </c>
       <c r="C34" t="n">
-        <v>490.3524314399174</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="D34" t="n">
-        <v>340.2357920275817</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="E34" t="n">
-        <v>340.2357920275817</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="F34" t="n">
-        <v>263.7213452440545</v>
+        <v>95.91696037508187</v>
       </c>
       <c r="G34" t="n">
         <v>95.91696037508187</v>
@@ -6856,19 +6856,19 @@
         <v>95.91696037508187</v>
       </c>
       <c r="J34" t="n">
-        <v>134.0030032635209</v>
+        <v>134.0030032635211</v>
       </c>
       <c r="K34" t="n">
-        <v>326.4269080128879</v>
+        <v>326.4269080128882</v>
       </c>
       <c r="L34" t="n">
-        <v>628.1896914633579</v>
+        <v>628.1896914633583</v>
       </c>
       <c r="M34" t="n">
-        <v>956.7453594420823</v>
+        <v>956.7453594420828</v>
       </c>
       <c r="N34" t="n">
-        <v>1282.923324416152</v>
+        <v>1282.923324416153</v>
       </c>
       <c r="O34" t="n">
         <v>1568.185172988681</v>
@@ -6886,22 +6886,22 @@
         <v>1664.575920387058</v>
       </c>
       <c r="T34" t="n">
-        <v>1664.575920387058</v>
+        <v>1442.375417006266</v>
       </c>
       <c r="U34" t="n">
-        <v>1375.467514517592</v>
+        <v>1153.267011136799</v>
       </c>
       <c r="V34" t="n">
-        <v>1120.783026311705</v>
+        <v>898.582522930912</v>
       </c>
       <c r="W34" t="n">
-        <v>1120.783026311705</v>
+        <v>609.1653528939514</v>
       </c>
       <c r="X34" t="n">
-        <v>892.7934754136874</v>
+        <v>498.3580043488516</v>
       </c>
       <c r="Y34" t="n">
-        <v>672.0008962701571</v>
+        <v>277.5654252053216</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2006.959795623891</v>
       </c>
       <c r="C35" t="n">
-        <v>1690.039929894511</v>
+        <v>1690.039929894512</v>
       </c>
       <c r="D35" t="n">
         <v>1383.816882498794</v>
@@ -6923,40 +6923,40 @@
         <v>1050.071281111582</v>
       </c>
       <c r="F35" t="n">
-        <v>691.1280275330068</v>
+        <v>691.1280275330073</v>
       </c>
       <c r="G35" t="n">
-        <v>327.8718441992624</v>
+        <v>327.8718441992625</v>
       </c>
       <c r="H35" t="n">
-        <v>80.01243588729126</v>
+        <v>80.01243588729128</v>
       </c>
       <c r="I35" t="n">
-        <v>80.01243588729126</v>
+        <v>80.01243588729128</v>
       </c>
       <c r="J35" t="n">
-        <v>264.6489084462705</v>
+        <v>250.0598351775751</v>
       </c>
       <c r="K35" t="n">
-        <v>891.1483564329648</v>
+        <v>876.5592831642693</v>
       </c>
       <c r="L35" t="n">
-        <v>1307.168345668473</v>
+        <v>1468.026708017935</v>
       </c>
       <c r="M35" t="n">
-        <v>1801.74017960735</v>
+        <v>1962.598541956812</v>
       </c>
       <c r="N35" t="n">
-        <v>2308.928511257126</v>
+        <v>2902.760328774452</v>
       </c>
       <c r="O35" t="n">
-        <v>2774.51680941873</v>
+        <v>3368.348626936056</v>
       </c>
       <c r="P35" t="n">
-        <v>3455.965370364494</v>
+        <v>3731.216466792053</v>
       </c>
       <c r="Q35" t="n">
-        <v>3890.483100250995</v>
+        <v>3955.542355925248</v>
       </c>
       <c r="R35" t="n">
         <v>4000.621794364563</v>
@@ -6968,19 +6968,19 @@
         <v>3782.28894874974</v>
       </c>
       <c r="U35" t="n">
-        <v>3580.783012483426</v>
+        <v>3580.783012483427</v>
       </c>
       <c r="V35" t="n">
-        <v>3301.762776350888</v>
+        <v>3301.762776350889</v>
       </c>
       <c r="W35" t="n">
-        <v>3001.036772291806</v>
+        <v>3001.036772291807</v>
       </c>
       <c r="X35" t="n">
-        <v>2679.613665241759</v>
+        <v>2679.61366524176</v>
       </c>
       <c r="Y35" t="n">
-        <v>2341.51698447698</v>
+        <v>2341.516984476981</v>
       </c>
     </row>
     <row r="36">
@@ -6999,40 +6999,40 @@
         <v>626.8900174041387</v>
       </c>
       <c r="E36" t="n">
-        <v>467.6525623986831</v>
+        <v>467.6525623986832</v>
       </c>
       <c r="F36" t="n">
-        <v>321.1180044255681</v>
+        <v>321.1180044255682</v>
       </c>
       <c r="G36" t="n">
         <v>184.6337779311483</v>
       </c>
       <c r="H36" t="n">
-        <v>92.96205825262324</v>
+        <v>92.96205825262325</v>
       </c>
       <c r="I36" t="n">
-        <v>80.01243588729126</v>
+        <v>80.01243588729128</v>
       </c>
       <c r="J36" t="n">
-        <v>287.3037799932881</v>
+        <v>162.4736550062834</v>
       </c>
       <c r="K36" t="n">
-        <v>506.3979624223086</v>
+        <v>381.5678374353039</v>
       </c>
       <c r="L36" t="n">
-        <v>847.319669754736</v>
+        <v>903.5120406903864</v>
       </c>
       <c r="M36" t="n">
-        <v>1264.516090145856</v>
+        <v>1320.708461081506</v>
       </c>
       <c r="N36" t="n">
-        <v>1707.163103293783</v>
+        <v>1763.355474229434</v>
       </c>
       <c r="O36" t="n">
-        <v>2089.87884701203</v>
+        <v>2146.071217947681</v>
       </c>
       <c r="P36" t="n">
-        <v>2377.708905918623</v>
+        <v>2433.901276854273</v>
       </c>
       <c r="Q36" t="n">
         <v>2576.388852326611</v>
@@ -7069,64 +7069,64 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>744.8736785039434</v>
+        <v>744.8736785039431</v>
       </c>
       <c r="C37" t="n">
-        <v>627.980146787069</v>
+        <v>627.9801467870686</v>
       </c>
       <c r="D37" t="n">
-        <v>529.9061585857658</v>
+        <v>529.9061585857653</v>
       </c>
       <c r="E37" t="n">
-        <v>434.0357162144051</v>
+        <v>434.0357162144046</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1884199275272</v>
+        <v>339.1884199275267</v>
       </c>
       <c r="G37" t="n">
-        <v>223.426686269587</v>
+        <v>223.4266862695865</v>
       </c>
       <c r="H37" t="n">
-        <v>128.3492944954742</v>
+        <v>128.3492944954735</v>
       </c>
       <c r="I37" t="n">
-        <v>80.01243588729126</v>
+        <v>80.01243588729128</v>
       </c>
       <c r="J37" t="n">
-        <v>169.1054812276633</v>
+        <v>169.1054812276634</v>
       </c>
       <c r="K37" t="n">
-        <v>412.5363884289634</v>
+        <v>412.5363884289635</v>
       </c>
       <c r="L37" t="n">
-        <v>765.3061743313665</v>
+        <v>765.3061743313663</v>
       </c>
       <c r="M37" t="n">
         <v>1144.868844762024</v>
       </c>
       <c r="N37" t="n">
-        <v>1522.053812188027</v>
+        <v>1522.053812188026</v>
       </c>
       <c r="O37" t="n">
         <v>1858.322663212488</v>
       </c>
       <c r="P37" t="n">
-        <v>2129.899775396494</v>
+        <v>2129.899775396493</v>
       </c>
       <c r="Q37" t="n">
-        <v>2250.183008625693</v>
+        <v>2250.183008625692</v>
       </c>
       <c r="R37" t="n">
-        <v>2207.82922429154</v>
+        <v>2207.829224291539</v>
       </c>
       <c r="S37" t="n">
-        <v>2066.416282391611</v>
+        <v>2066.416282391609</v>
       </c>
       <c r="T37" t="n">
-        <v>1896.25843022185</v>
+        <v>1896.258430221849</v>
       </c>
       <c r="U37" t="n">
-        <v>1659.192675563416</v>
+        <v>1659.192675563415</v>
       </c>
       <c r="V37" t="n">
         <v>1456.550838568561</v>
@@ -7138,7 +7138,7 @@
         <v>1043.229420055648</v>
       </c>
       <c r="Y37" t="n">
-        <v>874.4794921231507</v>
+        <v>874.4794921231503</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2006.959795623891</v>
+        <v>2006.95979562389</v>
       </c>
       <c r="C38" t="n">
-        <v>1690.039929894512</v>
+        <v>1690.039929894511</v>
       </c>
       <c r="D38" t="n">
-        <v>1383.816882498794</v>
+        <v>1383.816882498793</v>
       </c>
       <c r="E38" t="n">
         <v>1050.071281111582</v>
       </c>
       <c r="F38" t="n">
-        <v>691.1280275330072</v>
+        <v>691.1280275330068</v>
       </c>
       <c r="G38" t="n">
         <v>327.8718441992624</v>
@@ -7175,25 +7175,25 @@
         <v>417.4654841979282</v>
       </c>
       <c r="K38" t="n">
-        <v>891.1483564329648</v>
+        <v>723.0609737391694</v>
       </c>
       <c r="L38" t="n">
-        <v>1307.168345668473</v>
+        <v>1139.080962974677</v>
       </c>
       <c r="M38" t="n">
-        <v>1801.74017960735</v>
+        <v>1962.598541956812</v>
       </c>
       <c r="N38" t="n">
-        <v>2308.928511257126</v>
+        <v>2902.760328774451</v>
       </c>
       <c r="O38" t="n">
-        <v>2774.51680941873</v>
+        <v>3368.348626936056</v>
       </c>
       <c r="P38" t="n">
-        <v>3455.965370364494</v>
+        <v>3731.216466792052</v>
       </c>
       <c r="Q38" t="n">
-        <v>3890.483100250995</v>
+        <v>3955.542355925248</v>
       </c>
       <c r="R38" t="n">
         <v>4000.621794364563</v>
@@ -7208,16 +7208,16 @@
         <v>3580.783012483427</v>
       </c>
       <c r="V38" t="n">
-        <v>3301.762776350889</v>
+        <v>3301.762776350888</v>
       </c>
       <c r="W38" t="n">
-        <v>3001.036772291807</v>
+        <v>3001.036772291806</v>
       </c>
       <c r="X38" t="n">
-        <v>2679.61366524176</v>
+        <v>2679.613665241759</v>
       </c>
       <c r="Y38" t="n">
-        <v>2341.516984476981</v>
+        <v>2341.51698447698</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>80.01243588729126</v>
       </c>
       <c r="J39" t="n">
-        <v>287.3037799932881</v>
+        <v>162.4736550062834</v>
       </c>
       <c r="K39" t="n">
-        <v>506.3979624223086</v>
+        <v>381.5678374353039</v>
       </c>
       <c r="L39" t="n">
-        <v>847.319669754736</v>
+        <v>722.4895447677312</v>
       </c>
       <c r="M39" t="n">
-        <v>1264.516090145856</v>
+        <v>1139.685965158851</v>
       </c>
       <c r="N39" t="n">
-        <v>1707.163103293783</v>
+        <v>1763.355474229434</v>
       </c>
       <c r="O39" t="n">
-        <v>2089.87884701203</v>
+        <v>2146.071217947681</v>
       </c>
       <c r="P39" t="n">
-        <v>2377.708905918623</v>
+        <v>2433.901276854273</v>
       </c>
       <c r="Q39" t="n">
         <v>2576.388852326611</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>744.8736785039431</v>
+        <v>744.8736785039436</v>
       </c>
       <c r="C40" t="n">
-        <v>627.9801467870686</v>
+        <v>627.9801467870691</v>
       </c>
       <c r="D40" t="n">
-        <v>529.9061585857654</v>
+        <v>529.9061585857658</v>
       </c>
       <c r="E40" t="n">
-        <v>434.0357162144048</v>
+        <v>434.0357162144051</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1884199275269</v>
+        <v>339.1884199275271</v>
       </c>
       <c r="G40" t="n">
-        <v>223.4266862695868</v>
+        <v>223.426686269587</v>
       </c>
       <c r="H40" t="n">
-        <v>128.3492944954739</v>
+        <v>128.3492944954742</v>
       </c>
       <c r="I40" t="n">
         <v>80.01243588729126</v>
       </c>
       <c r="J40" t="n">
-        <v>169.1054812276634</v>
+        <v>169.1054812276633</v>
       </c>
       <c r="K40" t="n">
-        <v>412.5363884289635</v>
+        <v>412.5363884289634</v>
       </c>
       <c r="L40" t="n">
-        <v>765.3061743313665</v>
+        <v>765.3061743313663</v>
       </c>
       <c r="M40" t="n">
         <v>1144.868844762024</v>
       </c>
       <c r="N40" t="n">
-        <v>1522.053812188027</v>
+        <v>1522.053812188026</v>
       </c>
       <c r="O40" t="n">
-        <v>1858.322663212488</v>
+        <v>1858.322663212487</v>
       </c>
       <c r="P40" t="n">
         <v>2129.899775396494</v>
       </c>
       <c r="Q40" t="n">
-        <v>2250.183008625693</v>
+        <v>2250.183008625692</v>
       </c>
       <c r="R40" t="n">
         <v>2207.82922429154</v>
@@ -7375,7 +7375,7 @@
         <v>1043.229420055648</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.4794921231503</v>
+        <v>874.4794921231507</v>
       </c>
     </row>
     <row r="41">
@@ -7388,58 +7388,58 @@
         <v>2006.959795623892</v>
       </c>
       <c r="C41" t="n">
-        <v>1690.039929894513</v>
+        <v>1690.039929894512</v>
       </c>
       <c r="D41" t="n">
         <v>1383.816882498794</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.071281111583</v>
+        <v>1050.071281111582</v>
       </c>
       <c r="F41" t="n">
-        <v>691.1280275330076</v>
+        <v>691.1280275330073</v>
       </c>
       <c r="G41" t="n">
-        <v>327.8718441992625</v>
+        <v>327.8718441992624</v>
       </c>
       <c r="H41" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="I41" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="J41" t="n">
-        <v>417.4654841979282</v>
+        <v>250.0598351775752</v>
       </c>
       <c r="K41" t="n">
-        <v>1043.964932184622</v>
+        <v>876.5592831642696</v>
       </c>
       <c r="L41" t="n">
-        <v>1459.98492142013</v>
+        <v>1582.41944209603</v>
       </c>
       <c r="M41" t="n">
-        <v>1954.556755359008</v>
+        <v>2076.991276034908</v>
       </c>
       <c r="N41" t="n">
-        <v>2461.745087008783</v>
+        <v>2584.179607684684</v>
       </c>
       <c r="O41" t="n">
-        <v>2927.333385170387</v>
+        <v>3049.767905846288</v>
       </c>
       <c r="P41" t="n">
-        <v>3608.781946116152</v>
+        <v>3731.216466792052</v>
       </c>
       <c r="Q41" t="n">
-        <v>3890.483100250996</v>
+        <v>3955.542355925248</v>
       </c>
       <c r="R41" t="n">
-        <v>4000.621794364564</v>
+        <v>4000.621794364563</v>
       </c>
       <c r="S41" t="n">
-        <v>3937.215042820721</v>
+        <v>3937.21504282072</v>
       </c>
       <c r="T41" t="n">
-        <v>3782.288948749741</v>
+        <v>3782.28894874974</v>
       </c>
       <c r="U41" t="n">
         <v>3580.783012483428</v>
@@ -7451,10 +7451,10 @@
         <v>3001.036772291808</v>
       </c>
       <c r="X41" t="n">
-        <v>2679.613665241761</v>
+        <v>2679.61366524176</v>
       </c>
       <c r="Y41" t="n">
-        <v>2341.516984476982</v>
+        <v>2341.516984476981</v>
       </c>
     </row>
     <row r="42">
@@ -7473,40 +7473,40 @@
         <v>626.8900174041387</v>
       </c>
       <c r="E42" t="n">
-        <v>467.6525623986832</v>
+        <v>467.6525623986831</v>
       </c>
       <c r="F42" t="n">
-        <v>321.1180044255682</v>
+        <v>321.1180044255681</v>
       </c>
       <c r="G42" t="n">
         <v>184.6337779311483</v>
       </c>
       <c r="H42" t="n">
-        <v>92.96205825262325</v>
+        <v>92.96205825262321</v>
       </c>
       <c r="I42" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="J42" t="n">
-        <v>287.3037799932881</v>
+        <v>162.4736550062834</v>
       </c>
       <c r="K42" t="n">
-        <v>506.3979624223086</v>
+        <v>562.5903333579588</v>
       </c>
       <c r="L42" t="n">
-        <v>847.319669754736</v>
+        <v>903.5120406903862</v>
       </c>
       <c r="M42" t="n">
-        <v>1264.516090145856</v>
+        <v>1320.708461081506</v>
       </c>
       <c r="N42" t="n">
-        <v>1707.163103293783</v>
+        <v>1763.355474229434</v>
       </c>
       <c r="O42" t="n">
-        <v>2089.87884701203</v>
+        <v>2146.071217947681</v>
       </c>
       <c r="P42" t="n">
-        <v>2377.708905918623</v>
+        <v>2433.901276854273</v>
       </c>
       <c r="Q42" t="n">
         <v>2576.388852326611</v>
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.8736785039426</v>
+        <v>744.8736785039436</v>
       </c>
       <c r="C43" t="n">
-        <v>627.9801467870682</v>
+        <v>627.9801467870691</v>
       </c>
       <c r="D43" t="n">
-        <v>529.9061585857648</v>
+        <v>529.9061585857659</v>
       </c>
       <c r="E43" t="n">
-        <v>434.0357162144042</v>
+        <v>434.0357162144052</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1884199275262</v>
+        <v>339.1884199275273</v>
       </c>
       <c r="G43" t="n">
-        <v>223.4266862695861</v>
+        <v>223.4266862695872</v>
       </c>
       <c r="H43" t="n">
-        <v>128.349294495473</v>
+        <v>128.3492944954742</v>
       </c>
       <c r="I43" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="J43" t="n">
         <v>169.1054812276634</v>
       </c>
       <c r="K43" t="n">
-        <v>412.5363884289634</v>
+        <v>412.5363884289636</v>
       </c>
       <c r="L43" t="n">
-        <v>765.3061743313663</v>
+        <v>765.3061743313665</v>
       </c>
       <c r="M43" t="n">
         <v>1144.868844762024</v>
       </c>
       <c r="N43" t="n">
-        <v>1522.053812188026</v>
+        <v>1522.053812188027</v>
       </c>
       <c r="O43" t="n">
         <v>1858.322663212488</v>
       </c>
       <c r="P43" t="n">
-        <v>2129.899775396494</v>
+        <v>2129.899775396495</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.183008625692</v>
+        <v>2250.183008625693</v>
       </c>
       <c r="R43" t="n">
         <v>2207.82922429154</v>
       </c>
       <c r="S43" t="n">
-        <v>2066.41628239161</v>
+        <v>2066.416282391611</v>
       </c>
       <c r="T43" t="n">
-        <v>1896.25843022185</v>
+        <v>1896.258430221851</v>
       </c>
       <c r="U43" t="n">
-        <v>1659.192675563415</v>
+        <v>1659.192675563416</v>
       </c>
       <c r="V43" t="n">
-        <v>1456.550838568561</v>
+        <v>1456.550838568562</v>
       </c>
       <c r="W43" t="n">
         <v>1219.176319742633</v>
@@ -7612,7 +7612,7 @@
         <v>1043.229420055648</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.47949212315</v>
+        <v>874.4794921231506</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2006.959795623892</v>
+        <v>2006.959795623891</v>
       </c>
       <c r="C44" t="n">
         <v>1690.039929894512</v>
@@ -7637,55 +7637,55 @@
         <v>691.1280275330073</v>
       </c>
       <c r="G44" t="n">
-        <v>327.8718441992625</v>
+        <v>327.871844199262</v>
       </c>
       <c r="H44" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="I44" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="J44" t="n">
-        <v>417.4654841979282</v>
+        <v>250.0598351775751</v>
       </c>
       <c r="K44" t="n">
-        <v>723.0609737391694</v>
+        <v>675.0145393323083</v>
       </c>
       <c r="L44" t="n">
-        <v>1139.080962974677</v>
+        <v>1091.034528567816</v>
       </c>
       <c r="M44" t="n">
-        <v>1633.652796913555</v>
+        <v>1585.606362506694</v>
       </c>
       <c r="N44" t="n">
-        <v>2140.84112856333</v>
+        <v>2525.768149324334</v>
       </c>
       <c r="O44" t="n">
-        <v>2774.516809418731</v>
+        <v>3368.348626936056</v>
       </c>
       <c r="P44" t="n">
-        <v>3455.965370364495</v>
+        <v>3731.216466792052</v>
       </c>
       <c r="Q44" t="n">
-        <v>3890.483100250996</v>
+        <v>3955.542355925248</v>
       </c>
       <c r="R44" t="n">
-        <v>4000.621794364564</v>
+        <v>4000.621794364563</v>
       </c>
       <c r="S44" t="n">
         <v>3937.215042820721</v>
       </c>
       <c r="T44" t="n">
-        <v>3782.288948749741</v>
+        <v>3782.28894874974</v>
       </c>
       <c r="U44" t="n">
-        <v>3580.783012483428</v>
+        <v>3580.783012483427</v>
       </c>
       <c r="V44" t="n">
         <v>3301.762776350889</v>
       </c>
       <c r="W44" t="n">
-        <v>3001.036772291808</v>
+        <v>3001.036772291807</v>
       </c>
       <c r="X44" t="n">
         <v>2679.61366524176</v>
@@ -7710,43 +7710,43 @@
         <v>626.8900174041387</v>
       </c>
       <c r="E45" t="n">
-        <v>467.6525623986832</v>
+        <v>467.6525623986831</v>
       </c>
       <c r="F45" t="n">
-        <v>321.1180044255682</v>
+        <v>321.1180044255681</v>
       </c>
       <c r="G45" t="n">
         <v>184.6337779311483</v>
       </c>
       <c r="H45" t="n">
-        <v>92.96205825262325</v>
+        <v>92.96205825262324</v>
       </c>
       <c r="I45" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="J45" t="n">
-        <v>287.3037799932881</v>
+        <v>162.4736550062834</v>
       </c>
       <c r="K45" t="n">
-        <v>506.3979624223086</v>
+        <v>525.0361613100695</v>
       </c>
       <c r="L45" t="n">
-        <v>847.319669754736</v>
+        <v>865.9578686424968</v>
       </c>
       <c r="M45" t="n">
-        <v>1264.516090145856</v>
+        <v>1283.154289033617</v>
       </c>
       <c r="N45" t="n">
-        <v>1707.163103293783</v>
+        <v>1725.801302181544</v>
       </c>
       <c r="O45" t="n">
-        <v>2089.87884701203</v>
+        <v>2108.517045899791</v>
       </c>
       <c r="P45" t="n">
-        <v>2377.708905918623</v>
+        <v>2396.347104806384</v>
       </c>
       <c r="Q45" t="n">
-        <v>2576.388852326611</v>
+        <v>2538.834680278721</v>
       </c>
       <c r="R45" t="n">
         <v>2576.388852326611</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.8736785039436</v>
+        <v>744.8736785039433</v>
       </c>
       <c r="C46" t="n">
-        <v>627.9801467870691</v>
+        <v>627.9801467870689</v>
       </c>
       <c r="D46" t="n">
-        <v>529.9061585857658</v>
+        <v>529.9061585857656</v>
       </c>
       <c r="E46" t="n">
         <v>434.035716214405</v>
       </c>
       <c r="F46" t="n">
-        <v>339.188419927527</v>
+        <v>339.1884199275271</v>
       </c>
       <c r="G46" t="n">
-        <v>223.4266862695869</v>
+        <v>223.426686269587</v>
       </c>
       <c r="H46" t="n">
-        <v>128.3492944954739</v>
+        <v>128.3492944954742</v>
       </c>
       <c r="I46" t="n">
-        <v>80.01243588729128</v>
+        <v>80.01243588729126</v>
       </c>
       <c r="J46" t="n">
-        <v>169.1054812276633</v>
+        <v>169.1054812276634</v>
       </c>
       <c r="K46" t="n">
-        <v>412.5363884289634</v>
+        <v>412.5363884289636</v>
       </c>
       <c r="L46" t="n">
-        <v>765.3061743313663</v>
+        <v>765.3061743313665</v>
       </c>
       <c r="M46" t="n">
         <v>1144.868844762024</v>
@@ -7822,7 +7822,7 @@
         <v>1858.322663212488</v>
       </c>
       <c r="P46" t="n">
-        <v>2129.899775396495</v>
+        <v>2129.899775396494</v>
       </c>
       <c r="Q46" t="n">
         <v>2250.183008625693</v>
@@ -7831,10 +7831,10 @@
         <v>2207.82922429154</v>
       </c>
       <c r="S46" t="n">
-        <v>2066.416282391611</v>
+        <v>2066.41628239161</v>
       </c>
       <c r="T46" t="n">
-        <v>1896.258430221851</v>
+        <v>1896.25843022185</v>
       </c>
       <c r="U46" t="n">
         <v>1659.192675563416</v>
@@ -7843,13 +7843,13 @@
         <v>1456.550838568562</v>
       </c>
       <c r="W46" t="n">
-        <v>1219.176319742634</v>
+        <v>1219.176319742633</v>
       </c>
       <c r="X46" t="n">
-        <v>1043.229420055648</v>
+        <v>1043.229420055649</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.4794921231509</v>
+        <v>874.4794921231505</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
         <v>269.9301101891133</v>
@@ -7991,7 +7991,7 @@
         <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>173.5582843761708</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L5" t="n">
         <v>275.3502919318278</v>
@@ -8225,13 +8225,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8301,19 @@
         <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>171.9589358120561</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>268.0827398194126</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>178.1382567417148</v>
@@ -8544,13 +8544,13 @@
         <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>177.9663024837473</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>182.0497122741893</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>32.5985917149043</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.75997064207115</v>
+        <v>182.8510059824799</v>
       </c>
       <c r="R12" t="n">
         <v>7.588162692240502</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>76.83336018552399</v>
       </c>
       <c r="M14" t="n">
-        <v>156.1707710957427</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>144.9174988633997</v>
       </c>
       <c r="O15" t="n">
-        <v>182.8510059824802</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.588162692240502</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>252.0332774747104</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>359.1314871984173</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>182.8510059824802</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>7.588162692240502</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>196.0979588947038</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>195.4865343254714</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>182.85100598248</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>7.588162692240502</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>252.0332774747104</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>37.33277902693465</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>182.85100598248</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>7.588162692240502</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>224.9533454799825</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.58375146705339</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>182.85100598248</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>7.588162692240502</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>158.5174754954255</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.58375146705248</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>182.85100598248</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>7.588162692240502</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>252.0332774747113</v>
+        <v>361.4781915981002</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>182.85100598248</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>7.588162692240502</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>14.73643764514688</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>177.2196319375326</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>182.8510059824799</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>7.588162692240502</v>
@@ -10823,28 +10823,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>169.7852350442378</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>332.2684293366232</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>182.85100598248</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>7.588162692240502</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>292.7678481780331</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.95481313297844</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>182.8510059824795</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.588162692240502</v>
+        <v>7.588162692240473</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>120.5648632459516</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>169.7852350442389</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>144.9174988633996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.75997064207115</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.588162692240502</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,10 +23264,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>68.59089225302421</v>
       </c>
       <c r="F11" t="n">
-        <v>68.59089225303052</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>64.67254807592127</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.1263410202829</v>
@@ -23464,10 +23464,10 @@
         <v>93.45247118973343</v>
       </c>
       <c r="S13" t="n">
-        <v>191.5210371798524</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.9784983469845</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.51849419985501</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145.9883763567961</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.1263410202829</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.6488425552939</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>99.37571472102323</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.45247118973343</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>191.5210371798524</v>
+        <v>151.0000172287125</v>
       </c>
       <c r="T16" t="n">
-        <v>219.9784983469845</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>73.59851482935555</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.1263410202829</v>
       </c>
       <c r="H19" t="n">
         <v>145.6488425552939</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>191.5210371798524</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2173218107722</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>209.4628515191218</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>116.0103803293887</v>
+        <v>103.4252212460792</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>93.45247118973343</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>82.61236279402019</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>209.4628515191217</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.1263410202829</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.6488425552939</v>
       </c>
       <c r="I28" t="n">
         <v>99.37571472102323</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.45247118973343</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>150.7380762624611</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>196.8776924358129</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.1263410202829</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.6488425552939</v>
       </c>
       <c r="I31" t="n">
-        <v>10.59008282653094</v>
+        <v>99.37571472102323</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.9784983469845</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>47.47784692309715</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>69.67174570723931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.1263410202829</v>
       </c>
       <c r="H34" t="n">
         <v>145.6488425552939</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.9784983469845</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>116.0103803293881</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.229238932864973e-12</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>964848.1140518719</v>
+        <v>964848.1140518727</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>972656.0931517883</v>
+        <v>972656.0931517882</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>972656.0931517883</v>
+        <v>972656.0931517882</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>972656.0931517883</v>
+        <v>972656.0931517882</v>
       </c>
     </row>
     <row r="13">
@@ -26317,43 +26317,43 @@
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
-        <v>452008.6439800331</v>
+        <v>452008.6439800332</v>
       </c>
       <c r="F2" t="n">
+        <v>455148.049118454</v>
+      </c>
+      <c r="G2" t="n">
         <v>455148.0491184545</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>455148.0491184543</v>
+      </c>
+      <c r="I2" t="n">
+        <v>455148.0491184545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>455148.0491184543</v>
+      </c>
+      <c r="K2" t="n">
         <v>455148.0491184544</v>
       </c>
-      <c r="H2" t="n">
-        <v>455148.0491184544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>455148.0491184544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>455148.0491184542</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>455148.0491184543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>455148.0491184545</v>
       </c>
       <c r="M2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1171627.774161594</v>
+        <v>1171627.774161595</v>
       </c>
       <c r="F3" t="n">
-        <v>5064.181095055617</v>
+        <v>5064.181095055161</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380388</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>276191.5213336069</v>
+        <v>276191.5213336073</v>
       </c>
       <c r="N3" t="n">
-        <v>4328.9428640636</v>
+        <v>4328.942864063182</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392795.5642185676</v>
+        <v>392795.5642185675</v>
       </c>
       <c r="C4" t="n">
         <v>392795.5642185676</v>
       </c>
       <c r="D4" t="n">
-        <v>392795.5642185675</v>
+        <v>392795.5642185676</v>
       </c>
       <c r="E4" t="n">
-        <v>41961.21065158326</v>
+        <v>41961.21065158339</v>
       </c>
       <c r="F4" t="n">
         <v>43362.23963675858</v>
@@ -26433,13 +26433,13 @@
         <v>43362.23963675858</v>
       </c>
       <c r="H4" t="n">
-        <v>43362.23963675856</v>
+        <v>43362.23963675855</v>
       </c>
       <c r="I4" t="n">
         <v>43362.23963675858</v>
       </c>
       <c r="J4" t="n">
-        <v>43362.2396367586</v>
+        <v>43362.23963675858</v>
       </c>
       <c r="K4" t="n">
         <v>43362.23963675859</v>
@@ -26448,16 +26448,16 @@
         <v>43362.23963675859</v>
       </c>
       <c r="M4" t="n">
-        <v>79609.37416806075</v>
+        <v>79609.37416806073</v>
       </c>
       <c r="N4" t="n">
-        <v>79609.37416806075</v>
+        <v>79609.37416806072</v>
       </c>
       <c r="O4" t="n">
         <v>79609.37416806072</v>
       </c>
       <c r="P4" t="n">
-        <v>79609.37416806073</v>
+        <v>79609.37416806072</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>94364.06748301265</v>
+        <v>94364.06748301275</v>
       </c>
       <c r="F5" t="n">
         <v>95438.67226784678</v>
@@ -26485,31 +26485,31 @@
         <v>95438.67226784678</v>
       </c>
       <c r="H5" t="n">
-        <v>95438.67226784678</v>
+        <v>95438.67226784676</v>
       </c>
       <c r="I5" t="n">
         <v>95438.67226784678</v>
       </c>
       <c r="J5" t="n">
+        <v>95438.67226784678</v>
+      </c>
+      <c r="K5" t="n">
         <v>95438.67226784679</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95438.67226784678</v>
       </c>
       <c r="L5" t="n">
         <v>95438.67226784679</v>
       </c>
       <c r="M5" t="n">
-        <v>87682.65556533961</v>
+        <v>87682.65556533962</v>
       </c>
       <c r="N5" t="n">
         <v>87682.65556533961</v>
       </c>
       <c r="O5" t="n">
-        <v>87682.65556533962</v>
+        <v>87682.65556533961</v>
       </c>
       <c r="P5" t="n">
-        <v>87682.65556533962</v>
+        <v>87682.65556533961</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30003.68613503252</v>
+        <v>30003.68613503258</v>
       </c>
       <c r="C6" t="n">
-        <v>43269.15373411555</v>
+        <v>43269.15373411549</v>
       </c>
       <c r="D6" t="n">
-        <v>43269.15373411549</v>
+        <v>43269.15373411532</v>
       </c>
       <c r="E6" t="n">
-        <v>-855944.4083161571</v>
+        <v>-856031.7577669921</v>
       </c>
       <c r="F6" t="n">
-        <v>311282.9561187936</v>
+        <v>311209.2562555174</v>
       </c>
       <c r="G6" t="n">
-        <v>316347.1372138491</v>
+        <v>316273.4373505731</v>
       </c>
       <c r="H6" t="n">
-        <v>316347.1372138491</v>
+        <v>316273.4373505729</v>
       </c>
       <c r="I6" t="n">
-        <v>316347.1372138491</v>
+        <v>316273.4373505731</v>
       </c>
       <c r="J6" t="n">
-        <v>305990.253310045</v>
+        <v>305916.5534467691</v>
       </c>
       <c r="K6" t="n">
-        <v>316347.1372138489</v>
+        <v>316273.4373505729</v>
       </c>
       <c r="L6" t="n">
-        <v>316347.1372138491</v>
+        <v>316273.4373505728</v>
       </c>
       <c r="M6" t="n">
-        <v>28615.4666049557</v>
+        <v>28615.46660495535</v>
       </c>
       <c r="N6" t="n">
-        <v>300478.045074499</v>
+        <v>300478.0450744994</v>
       </c>
       <c r="O6" t="n">
-        <v>304806.9879385626</v>
+        <v>304806.9879385629</v>
       </c>
       <c r="P6" t="n">
-        <v>304806.9879385626</v>
+        <v>304806.9879385628</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>51.52222469892212</v>
+      </c>
+      <c r="N2" t="n">
+        <v>51.52222469892212</v>
+      </c>
+      <c r="O2" t="n">
+        <v>51.52222469892212</v>
+      </c>
+      <c r="P2" t="n">
         <v>51.52222469892213</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51.52222469892213</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51.52222469892209</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.52222469892209</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>1181.28758388533</v>
+        <v>1181.287583885332</v>
       </c>
       <c r="F4" t="n">
         <v>1198.962004688523</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1141.70370692349</v>
+        <v>1141.703706923491</v>
       </c>
       <c r="F4" t="n">
-        <v>17.67442080319279</v>
+        <v>17.6744208031912</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184082</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>942.8971508261071</v>
+        <v>942.8971508261088</v>
       </c>
       <c r="N4" t="n">
-        <v>17.67442080319279</v>
+        <v>17.67442080319108</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1141.70370692349</v>
+        <v>1141.703706923491</v>
       </c>
       <c r="N4" t="n">
-        <v>17.67442080319279</v>
+        <v>17.6744208031912</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>369.6694160361741</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>110.2852409793091</v>
@@ -27430,13 +27430,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>327.0148522536047</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27476,10 +27476,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.5638082755731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,22 +27546,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G4" t="n">
-        <v>143.4204825963432</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27591,13 +27591,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F5" t="n">
-        <v>393.9505554828796</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>170.8920126085653</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.253292998014661</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,13 +27701,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27743,16 +27743,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V6" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,22 +27813,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S7" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>347.2741578992747</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>392.3865480417584</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,13 +27932,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,22 +27983,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X9" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>121.8634658844537</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,19 +28065,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>208.6071009908305</v>
       </c>
     </row>
     <row r="11">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="C35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="D35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="E35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="F35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="G35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="H35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="I35" t="n">
         <v>50.21733711781221</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="T35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="U35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="V35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="W35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="X35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Y35" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="C37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="D37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="E37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="F37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="G37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="H37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="I37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="J37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="K37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="L37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="M37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="N37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="O37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="P37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="R37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="S37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="T37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="U37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="V37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="W37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="X37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="C38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="D38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="E38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="F38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="G38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="H38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="I38" t="n">
         <v>50.21733711781221</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="T38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="U38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="V38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="W38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="X38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Y38" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="C40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="D40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="E40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="F40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="G40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="H40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="I40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="J40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="K40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="L40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="M40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="N40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="O40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="P40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="R40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="S40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="T40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="U40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="V40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="W40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="X40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.52222469892213</v>
+        <v>51.52222469892212</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="C41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="D41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="E41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="F41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="G41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="H41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="I41" t="n">
-        <v>50.21733711781221</v>
+        <v>50.21733711781218</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="T41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="U41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="V41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="W41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="X41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Y41" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="C43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="D43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="E43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="F43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="G43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="H43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="I43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="J43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="K43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="L43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="M43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="N43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="O43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="P43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="R43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="S43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="T43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="U43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="V43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="W43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="X43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892212</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="C44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="D44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="E44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="F44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="G44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="H44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="I44" t="n">
         <v>50.21733711781221</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="T44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="U44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="V44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="W44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="X44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="Y44" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="C46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="D46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="E46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="F46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="G46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="H46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="I46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="J46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="K46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="L46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="M46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="N46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="O46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="P46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="R46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="S46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="T46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="U46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="V46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="W46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="X46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.52222469892209</v>
+        <v>51.52222469892213</v>
       </c>
     </row>
   </sheetData>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.156891315805552</v>
+        <v>4.156891315805553</v>
       </c>
       <c r="H41" t="n">
-        <v>42.57176318799362</v>
+        <v>42.57176318799363</v>
       </c>
       <c r="I41" t="n">
         <v>160.2585524525937</v>
       </c>
       <c r="J41" t="n">
-        <v>352.8109543148518</v>
+        <v>352.8109543148519</v>
       </c>
       <c r="K41" t="n">
-        <v>528.7721637129009</v>
+        <v>528.772163712901</v>
       </c>
       <c r="L41" t="n">
-        <v>655.9886263189852</v>
+        <v>655.9886263189853</v>
       </c>
       <c r="M41" t="n">
-        <v>729.9137422564421</v>
+        <v>729.9137422564423</v>
       </c>
       <c r="N41" t="n">
-        <v>741.7245097074748</v>
+        <v>741.7245097074749</v>
       </c>
       <c r="O41" t="n">
-        <v>700.3894216859333</v>
+        <v>700.3894216859334</v>
       </c>
       <c r="P41" t="n">
-        <v>597.7661673269836</v>
+        <v>597.7661673269837</v>
       </c>
       <c r="Q41" t="n">
-        <v>448.8974970796971</v>
+        <v>448.8974970796972</v>
       </c>
       <c r="R41" t="n">
-        <v>261.1203241164707</v>
+        <v>261.1203241164708</v>
       </c>
       <c r="S41" t="n">
-        <v>94.72516085891911</v>
+        <v>94.72516085891914</v>
       </c>
       <c r="T41" t="n">
-        <v>18.19679173493881</v>
+        <v>18.19679173493882</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3325513052644441</v>
+        <v>0.3325513052644442</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>21.48044175475664</v>
       </c>
       <c r="I42" t="n">
-        <v>76.57650670973642</v>
+        <v>76.57650670973645</v>
       </c>
       <c r="J42" t="n">
-        <v>210.1317873929213</v>
+        <v>210.1317873929214</v>
       </c>
       <c r="K42" t="n">
-        <v>359.1486939531676</v>
+        <v>359.1486939531677</v>
       </c>
       <c r="L42" t="n">
-        <v>482.91974072172</v>
+        <v>482.9197407217201</v>
       </c>
       <c r="M42" t="n">
-        <v>563.5445595696143</v>
+        <v>563.5445595696144</v>
       </c>
       <c r="N42" t="n">
-        <v>578.4599071822497</v>
+        <v>578.4599071822498</v>
       </c>
       <c r="O42" t="n">
-        <v>529.1778037558053</v>
+        <v>529.1778037558054</v>
       </c>
       <c r="P42" t="n">
-        <v>424.7118406533127</v>
+        <v>424.7118406533128</v>
       </c>
       <c r="Q42" t="n">
         <v>283.9086179974738</v>
@@ -34235,10 +34235,10 @@
         <v>138.0913412717235</v>
       </c>
       <c r="S42" t="n">
-        <v>41.3122937472272</v>
+        <v>41.31229374722721</v>
       </c>
       <c r="T42" t="n">
-        <v>8.964816517993343</v>
+        <v>8.964816517993345</v>
       </c>
       <c r="U42" t="n">
         <v>0.1463245351141461</v>
@@ -34278,31 +34278,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.864638338175893</v>
+        <v>1.864638338175894</v>
       </c>
       <c r="H43" t="n">
-        <v>16.57832995214568</v>
+        <v>16.57832995214569</v>
       </c>
       <c r="I43" t="n">
-        <v>56.07476020623506</v>
+        <v>56.07476020623508</v>
       </c>
       <c r="J43" t="n">
-        <v>131.8299305090356</v>
+        <v>131.8299305090357</v>
       </c>
       <c r="K43" t="n">
         <v>216.6370723807992</v>
       </c>
       <c r="L43" t="n">
-        <v>277.220867113896</v>
+        <v>277.2208671138961</v>
       </c>
       <c r="M43" t="n">
-        <v>292.2905351378811</v>
+        <v>292.2905351378812</v>
       </c>
       <c r="N43" t="n">
-        <v>285.3405195137712</v>
+        <v>285.3405195137713</v>
       </c>
       <c r="O43" t="n">
-        <v>263.5581534723527</v>
+        <v>263.5581534723528</v>
       </c>
       <c r="P43" t="n">
         <v>225.5195313735643</v>
@@ -34311,13 +34311,13 @@
         <v>156.1380339358014</v>
       </c>
       <c r="R43" t="n">
-        <v>83.84092018743605</v>
+        <v>83.84092018743607</v>
       </c>
       <c r="S43" t="n">
         <v>32.49556085711988</v>
       </c>
       <c r="T43" t="n">
-        <v>7.967091081296997</v>
+        <v>7.967091081296998</v>
       </c>
       <c r="U43" t="n">
         <v>0.1017075457186852</v>
@@ -34699,10 +34699,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M2" t="n">
         <v>39.58387696184059</v>
@@ -34711,7 +34711,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N3" t="n">
-        <v>37.98452839772582</v>
-      </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>39.58387696184059</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L5" t="n">
         <v>39.58387696184059</v>
@@ -34945,13 +34945,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>39.58387696184059</v>
@@ -35264,13 +35264,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="Q9" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>340.8616649602393</v>
+        <v>171.7650497881655</v>
       </c>
       <c r="K11" t="n">
-        <v>632.8277252390851</v>
+        <v>308.6823126679204</v>
       </c>
       <c r="L11" t="n">
-        <v>602.2719236231873</v>
+        <v>837.8834258994484</v>
       </c>
       <c r="M11" t="n">
         <v>499.5675090291694</v>
       </c>
       <c r="N11" t="n">
-        <v>512.3114461108839</v>
+        <v>949.658370522868</v>
       </c>
       <c r="O11" t="n">
         <v>851.0913915269919</v>
@@ -35428,7 +35428,7 @@
         <v>688.3318797431966</v>
       </c>
       <c r="Q11" t="n">
-        <v>438.9067978651523</v>
+        <v>259.1903989201519</v>
       </c>
       <c r="R11" t="n">
         <v>111.251206175321</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K12" t="n">
         <v>221.3072549788086</v>
@@ -35507,7 +35507,7 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.6868145535234</v>
+        <v>326.7778498939321</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>222.7980906384578</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.97599068410706</v>
+        <v>69.97599068410703</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>340.8616649602393</v>
       </c>
       <c r="K14" t="n">
-        <v>632.8277252390851</v>
+        <v>308.6823126679204</v>
       </c>
       <c r="L14" t="n">
-        <v>837.8834258994484</v>
+        <v>497.055571534522</v>
       </c>
       <c r="M14" t="n">
-        <v>655.7382801249121</v>
+        <v>949.0810425220019</v>
       </c>
       <c r="N14" t="n">
-        <v>512.3114461108839</v>
+        <v>949.658370522868</v>
       </c>
       <c r="O14" t="n">
         <v>851.0913915269919</v>
@@ -35668,7 +35668,7 @@
         <v>438.9067978651523</v>
       </c>
       <c r="R14" t="n">
-        <v>111.251206175321</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>421.410525647596</v>
       </c>
       <c r="N15" t="n">
-        <v>447.1181950989164</v>
+        <v>592.0356939623161</v>
       </c>
       <c r="O15" t="n">
-        <v>569.432565293841</v>
+        <v>386.5815593113608</v>
       </c>
       <c r="P15" t="n">
         <v>290.7374332389824</v>
@@ -35747,7 +35747,7 @@
         <v>143.9268439114522</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.93350711908032</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>340.8616649602393</v>
+        <v>171.7650497881655</v>
       </c>
       <c r="K17" t="n">
         <v>632.8277252390851</v>
       </c>
       <c r="L17" t="n">
-        <v>672.2554888237083</v>
+        <v>420.222211348998</v>
       </c>
       <c r="M17" t="n">
-        <v>499.5675090291694</v>
+        <v>949.0810425220019</v>
       </c>
       <c r="N17" t="n">
-        <v>512.3114461108839</v>
+        <v>871.4429333093012</v>
       </c>
       <c r="O17" t="n">
         <v>851.0913915269919</v>
       </c>
       <c r="P17" t="n">
-        <v>688.3318797431966</v>
+        <v>366.533171571714</v>
       </c>
       <c r="Q17" t="n">
         <v>438.9067978651523</v>
       </c>
       <c r="R17" t="n">
-        <v>111.251206175321</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K18" t="n">
         <v>221.3072549788086</v>
@@ -35975,13 +35975,13 @@
         <v>447.1181950989164</v>
       </c>
       <c r="O18" t="n">
-        <v>386.5815593113608</v>
+        <v>569.432565293841</v>
       </c>
       <c r="P18" t="n">
         <v>290.7374332389824</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>340.8616649602393</v>
+        <v>171.7650497881655</v>
       </c>
       <c r="K20" t="n">
         <v>632.8277252390851</v>
       </c>
       <c r="L20" t="n">
-        <v>420.222211348998</v>
+        <v>616.3201702437018</v>
       </c>
       <c r="M20" t="n">
         <v>499.5675090291694</v>
@@ -36133,13 +36133,13 @@
         <v>949.658370522868</v>
       </c>
       <c r="O20" t="n">
-        <v>665.7777445897179</v>
+        <v>851.0913915269919</v>
       </c>
       <c r="P20" t="n">
         <v>688.3318797431966</v>
       </c>
       <c r="Q20" t="n">
-        <v>438.9067978651523</v>
+        <v>226.5918072052476</v>
       </c>
       <c r="R20" t="n">
         <v>111.251206175321</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K21" t="n">
         <v>221.3072549788086</v>
@@ -36206,7 +36206,7 @@
         <v>344.3653609418458</v>
       </c>
       <c r="M21" t="n">
-        <v>421.410525647596</v>
+        <v>604.261531630076</v>
       </c>
       <c r="N21" t="n">
         <v>447.1181950989164</v>
@@ -36218,7 +36218,7 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>340.8616649602393</v>
+        <v>171.7650497881655</v>
       </c>
       <c r="K23" t="n">
         <v>632.8277252390851</v>
       </c>
       <c r="L23" t="n">
-        <v>672.2554888237083</v>
+        <v>420.222211348998</v>
       </c>
       <c r="M23" t="n">
-        <v>499.5675090291694</v>
+        <v>949.0810425220019</v>
       </c>
       <c r="N23" t="n">
-        <v>512.3114461108839</v>
+        <v>549.6442251378186</v>
       </c>
       <c r="O23" t="n">
         <v>851.0913915269919</v>
@@ -36379,7 +36379,7 @@
         <v>438.9067978651523</v>
       </c>
       <c r="R23" t="n">
-        <v>111.251206175321</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K24" t="n">
         <v>221.3072549788086</v>
@@ -36443,7 +36443,7 @@
         <v>344.3653609418458</v>
       </c>
       <c r="M24" t="n">
-        <v>421.410525647596</v>
+        <v>604.261531630076</v>
       </c>
       <c r="N24" t="n">
         <v>447.1181950989164</v>
@@ -36455,7 +36455,7 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>171.7650497881655</v>
       </c>
       <c r="K26" t="n">
-        <v>308.6823126679204</v>
+        <v>632.8277252390851</v>
       </c>
       <c r="L26" t="n">
         <v>837.8834258994484</v>
       </c>
       <c r="M26" t="n">
-        <v>949.0810425220019</v>
+        <v>724.5208545091519</v>
       </c>
       <c r="N26" t="n">
         <v>949.658370522868</v>
       </c>
       <c r="O26" t="n">
-        <v>851.0913915269919</v>
+        <v>470.2912102642465</v>
       </c>
       <c r="P26" t="n">
-        <v>366.533171571714</v>
+        <v>688.3318797431966</v>
       </c>
       <c r="Q26" t="n">
         <v>226.5918072052476</v>
       </c>
       <c r="R26" t="n">
-        <v>86.11853776939199</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K27" t="n">
         <v>221.3072549788086</v>
@@ -36689,10 +36689,10 @@
         <v>386.5815593113608</v>
       </c>
       <c r="P27" t="n">
-        <v>290.7374332389824</v>
+        <v>473.5884392214624</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7650497881655</v>
+        <v>340.8616649602393</v>
       </c>
       <c r="K29" t="n">
         <v>308.6823126679204</v>
@@ -36838,22 +36838,22 @@
         <v>837.8834258994484</v>
       </c>
       <c r="M29" t="n">
-        <v>949.0810425220019</v>
+        <v>658.0849845245949</v>
       </c>
       <c r="N29" t="n">
-        <v>949.658370522868</v>
+        <v>512.3114461108839</v>
       </c>
       <c r="O29" t="n">
         <v>851.0913915269919</v>
       </c>
       <c r="P29" t="n">
-        <v>366.533171571714</v>
+        <v>688.3318797431966</v>
       </c>
       <c r="Q29" t="n">
-        <v>226.5918072052476</v>
+        <v>438.9067978651523</v>
       </c>
       <c r="R29" t="n">
-        <v>86.11853776939108</v>
+        <v>111.251206175321</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K30" t="n">
-        <v>221.3072549788086</v>
+        <v>404.1582609612886</v>
       </c>
       <c r="L30" t="n">
         <v>344.3653609418458</v>
@@ -36929,7 +36929,7 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>340.8616649602393</v>
+        <v>171.7650497881655</v>
       </c>
       <c r="K32" t="n">
-        <v>632.8277252390851</v>
+        <v>308.6823126679204</v>
       </c>
       <c r="L32" t="n">
-        <v>672.2554888237092</v>
+        <v>781.7004029470982</v>
       </c>
       <c r="M32" t="n">
-        <v>499.5675090291694</v>
+        <v>949.0810425220019</v>
       </c>
       <c r="N32" t="n">
         <v>512.3114461108839</v>
@@ -37090,7 +37090,7 @@
         <v>438.9067978651523</v>
       </c>
       <c r="R32" t="n">
-        <v>111.251206175321</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K33" t="n">
         <v>221.3072549788086</v>
@@ -37154,7 +37154,7 @@
         <v>344.3653609418458</v>
       </c>
       <c r="M33" t="n">
-        <v>421.410525647596</v>
+        <v>604.261531630076</v>
       </c>
       <c r="N33" t="n">
         <v>447.1181950989164</v>
@@ -37166,7 +37166,7 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>186.5014874333124</v>
+        <v>171.7650497881655</v>
       </c>
       <c r="K35" t="n">
         <v>632.8277252390851</v>
       </c>
       <c r="L35" t="n">
-        <v>420.222211348998</v>
+        <v>597.4418432865306</v>
       </c>
       <c r="M35" t="n">
         <v>499.5675090291694</v>
       </c>
       <c r="N35" t="n">
-        <v>512.3114461108839</v>
+        <v>949.658370522868</v>
       </c>
       <c r="O35" t="n">
         <v>470.2912102642465</v>
       </c>
       <c r="P35" t="n">
-        <v>688.3318797431966</v>
+        <v>366.533171571714</v>
       </c>
       <c r="Q35" t="n">
-        <v>438.9067978651523</v>
+        <v>226.5918072052476</v>
       </c>
       <c r="R35" t="n">
-        <v>111.251206175321</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K36" t="n">
         <v>221.3072549788086</v>
       </c>
       <c r="L36" t="n">
-        <v>344.3653609418458</v>
+        <v>527.2163669243257</v>
       </c>
       <c r="M36" t="n">
         <v>421.410525647596</v>
@@ -37403,7 +37403,7 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q36" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>89.992975091285</v>
+        <v>89.99297509128499</v>
       </c>
       <c r="K37" t="n">
         <v>245.8898052538385</v>
       </c>
       <c r="L37" t="n">
-        <v>356.3331170731343</v>
+        <v>356.3331170731342</v>
       </c>
       <c r="M37" t="n">
         <v>383.3966367986438</v>
@@ -37482,7 +37482,7 @@
         <v>274.32031533738</v>
       </c>
       <c r="Q37" t="n">
-        <v>121.4982153830292</v>
+        <v>121.4982153830291</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>340.8616649602393</v>
       </c>
       <c r="K38" t="n">
-        <v>478.4675477121582</v>
+        <v>308.6823126679204</v>
       </c>
       <c r="L38" t="n">
         <v>420.222211348998</v>
       </c>
       <c r="M38" t="n">
-        <v>499.5675090291694</v>
+        <v>831.8359383657926</v>
       </c>
       <c r="N38" t="n">
-        <v>512.3114461108839</v>
+        <v>949.658370522868</v>
       </c>
       <c r="O38" t="n">
         <v>470.2912102642465</v>
       </c>
       <c r="P38" t="n">
-        <v>688.3318797431966</v>
+        <v>366.533171571714</v>
       </c>
       <c r="Q38" t="n">
-        <v>438.9067978651523</v>
+        <v>226.5918072052476</v>
       </c>
       <c r="R38" t="n">
-        <v>111.251206175321</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K39" t="n">
         <v>221.3072549788086</v>
@@ -37631,7 +37631,7 @@
         <v>421.410525647596</v>
       </c>
       <c r="N39" t="n">
-        <v>447.1181950989164</v>
+        <v>629.9692010813965</v>
       </c>
       <c r="O39" t="n">
         <v>386.5815593113608</v>
@@ -37640,7 +37640,7 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>89.992975091285</v>
+        <v>89.99297509128499</v>
       </c>
       <c r="K40" t="n">
         <v>245.8898052538385</v>
       </c>
       <c r="L40" t="n">
-        <v>356.3331170731343</v>
+        <v>356.3331170731342</v>
       </c>
       <c r="M40" t="n">
         <v>383.3966367986438</v>
@@ -37719,7 +37719,7 @@
         <v>274.32031533738</v>
       </c>
       <c r="Q40" t="n">
-        <v>121.4982153830292</v>
+        <v>121.4982153830291</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>340.8616649602393</v>
+        <v>171.7650497881656</v>
       </c>
       <c r="K41" t="n">
-        <v>632.8277252390851</v>
+        <v>632.8277252390852</v>
       </c>
       <c r="L41" t="n">
-        <v>420.222211348998</v>
+        <v>712.9900595270312</v>
       </c>
       <c r="M41" t="n">
-        <v>499.5675090291694</v>
+        <v>499.5675090291696</v>
       </c>
       <c r="N41" t="n">
         <v>512.3114461108839</v>
       </c>
       <c r="O41" t="n">
-        <v>470.2912102642465</v>
+        <v>470.2912102642466</v>
       </c>
       <c r="P41" t="n">
-        <v>688.3318797431966</v>
+        <v>688.3318797431969</v>
       </c>
       <c r="Q41" t="n">
-        <v>284.5466203382261</v>
+        <v>226.5918072052477</v>
       </c>
       <c r="R41" t="n">
-        <v>111.251206175321</v>
+        <v>45.53478630233866</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625469</v>
       </c>
       <c r="K42" t="n">
-        <v>221.3072549788086</v>
+        <v>404.1582609612882</v>
       </c>
       <c r="L42" t="n">
-        <v>344.3653609418458</v>
+        <v>344.3653609418459</v>
       </c>
       <c r="M42" t="n">
-        <v>421.410525647596</v>
+        <v>421.4105256475961</v>
       </c>
       <c r="N42" t="n">
-        <v>447.1181950989164</v>
+        <v>447.1181950989165</v>
       </c>
       <c r="O42" t="n">
-        <v>386.5815593113608</v>
+        <v>386.5815593113609</v>
       </c>
       <c r="P42" t="n">
-        <v>290.7374332389824</v>
+        <v>290.7374332389825</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114523</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>89.99297509128496</v>
+        <v>89.99297509128502</v>
       </c>
       <c r="K43" t="n">
-        <v>245.8898052538384</v>
+        <v>245.8898052538385</v>
       </c>
       <c r="L43" t="n">
-        <v>356.3331170731342</v>
+        <v>356.3331170731344</v>
       </c>
       <c r="M43" t="n">
-        <v>383.3966367986438</v>
+        <v>383.3966367986439</v>
       </c>
       <c r="N43" t="n">
         <v>380.9949165919219</v>
       </c>
       <c r="O43" t="n">
-        <v>339.6655060853145</v>
+        <v>339.6655060853146</v>
       </c>
       <c r="P43" t="n">
-        <v>274.3203153373799</v>
+        <v>274.32031533738</v>
       </c>
       <c r="Q43" t="n">
-        <v>121.4982153830291</v>
+        <v>121.4982153830292</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>340.8616649602393</v>
+        <v>171.7650497881655</v>
       </c>
       <c r="K44" t="n">
-        <v>308.6823126679204</v>
+        <v>429.247175913872</v>
       </c>
       <c r="L44" t="n">
         <v>420.222211348998</v>
@@ -38026,19 +38026,19 @@
         <v>499.5675090291694</v>
       </c>
       <c r="N44" t="n">
-        <v>512.3114461108839</v>
+        <v>949.658370522868</v>
       </c>
       <c r="O44" t="n">
-        <v>640.0764453084854</v>
+        <v>851.0913915269919</v>
       </c>
       <c r="P44" t="n">
-        <v>688.3318797431966</v>
+        <v>366.533171571714</v>
       </c>
       <c r="Q44" t="n">
-        <v>438.9067978651523</v>
+        <v>226.5918072052476</v>
       </c>
       <c r="R44" t="n">
-        <v>111.251206175321</v>
+        <v>45.5347863023386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>209.3851960666635</v>
+        <v>83.29416072625463</v>
       </c>
       <c r="K45" t="n">
-        <v>221.3072549788086</v>
+        <v>366.2247538422082</v>
       </c>
       <c r="L45" t="n">
         <v>344.3653609418458</v>
@@ -38114,10 +38114,10 @@
         <v>290.7374332389824</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.6868145535234</v>
+        <v>143.9268439114522</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.93350711908032</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>89.99297509128496</v>
+        <v>89.992975091285</v>
       </c>
       <c r="K46" t="n">
-        <v>245.8898052538384</v>
+        <v>245.8898052538385</v>
       </c>
       <c r="L46" t="n">
-        <v>356.3331170731342</v>
+        <v>356.3331170731343</v>
       </c>
       <c r="M46" t="n">
         <v>383.3966367986438</v>
@@ -38190,10 +38190,10 @@
         <v>339.6655060853145</v>
       </c>
       <c r="P46" t="n">
-        <v>274.3203153373799</v>
+        <v>274.32031533738</v>
       </c>
       <c r="Q46" t="n">
-        <v>121.4982153830291</v>
+        <v>121.4982153830292</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
